--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_5_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_5_18.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>556615.80335087</v>
+        <v>559002.4659598408</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3786661.858346309</v>
+        <v>3854815.050462389</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10043594.94970761</v>
+        <v>10110391.89330058</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7506298.590850486</v>
+        <v>7452011.213875981</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>168.0986270759799</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +673,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>125.6067509306495</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -738,7 +740,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
-        <v>149.1476881355087</v>
+        <v>149.1476881355094</v>
       </c>
       <c r="D3" t="n">
         <v>128.7880777047345</v>
@@ -817,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>100.3434053864689</v>
+        <v>128.4863394655061</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
@@ -829,7 +831,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>153.923765528121</v>
@@ -838,7 +840,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -896,19 +898,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>407.8753152263485</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
@@ -947,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>202.7265009245881</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>48.89338144820825</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1142,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>280.9962752219644</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>341.1858058764129</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
@@ -1291,22 +1293,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>93.52529077486061</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>113.1667354347866</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1373,22 +1375,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>192.2530626023321</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1430,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.7480363891213</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1469,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I12" t="n">
-        <v>48.89338144820825</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>11.79470247300951</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1585,16 +1587,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>116.8763835457721</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1613,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>352.6619391096078</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
         <v>412.725494085322</v>
@@ -1622,7 +1624,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,10 +1660,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>162.1147045466223</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V14" t="n">
         <v>338.6857412035168</v>
@@ -1670,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1762,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1777,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>87.95308749070813</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>53.0363847091458</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="17">
@@ -1841,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1895,19 +1897,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>161.4085122120592</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>293.0683194783568</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
         <v>392.5258019886049</v>
@@ -2002,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>8.817639746825281</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>115.2540412271705</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2087,7 +2089,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>412.725494085322</v>
@@ -2096,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>164.8484195083599</v>
+        <v>155.1550856889831</v>
       </c>
       <c r="T20" t="n">
         <v>221.2655964161775</v>
@@ -2138,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2147,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>327.8392031211088</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2239,10 +2241,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2260,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>26.71458769549607</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2290,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2302,10 +2304,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>42.76321480225778</v>
       </c>
     </row>
     <row r="23">
@@ -2321,13 +2323,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>310.4213103716314</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>409.0311279568768</v>
@@ -2336,7 +2338,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I23" t="n">
-        <v>136.9537457384598</v>
+        <v>21.34821641893407</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="24">
@@ -2479,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>130.4178928586281</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>154.0032240193895</v>
@@ -2494,7 +2496,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I25" t="n">
-        <v>131.7634811092929</v>
+        <v>41.30043339639768</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2542,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -2555,22 +2557,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>296.7539869441817</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>28.60163344621502</v>
       </c>
       <c r="G26" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2615,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>125.6476561767118</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2764,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U28" t="n">
         <v>282.5844038405181</v>
@@ -2773,13 +2775,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>113.1667354347866</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>378.9487899620085</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2852,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>340.4340932365991</v>
       </c>
       <c r="X29" t="n">
         <v>385.5580790162737</v>
@@ -2947,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -3001,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>113.166735434787</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>154.7572460957208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3032,19 +3034,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>332.7770642499989</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>161.426567940158</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3092,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>392.5258019886049</v>
@@ -3187,10 +3189,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>108.1045920014101</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>154.0032240193895</v>
@@ -3202,7 +3204,7 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H34" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>92.65523704301719</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3278,7 +3280,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>345.7494872469442</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3323,10 +3325,10 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>304.0074039714629</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3427,22 +3429,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>130.417892858628</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,16 +3477,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>66.03149870010068</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3503,13 +3505,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>300.7253484649567</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
         <v>412.725494085322</v>
@@ -3518,7 +3520,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H38" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,19 +3559,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>142.8253442212657</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -3670,19 +3672,19 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>15.12550965999399</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3715,7 +3717,7 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>19.85905444009132</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3746,16 +3748,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H41" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,10 +3796,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3806,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>187.6643435301834</v>
+        <v>289.1043232126787</v>
       </c>
     </row>
     <row r="42">
@@ -3907,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>27.60643040191913</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>66.0314987001008</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3992,10 +3994,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4034,16 +4036,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>324.767161098525</v>
+        <v>96.55283411937401</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -4059,22 +4061,22 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E45" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,13 +4103,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T45" t="n">
-        <v>121.3691205752644</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U45" t="n">
         <v>207.9625118881446</v>
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>137.4348246626608</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>21.27104444158488</v>
       </c>
       <c r="D46" t="n">
         <v>154.0767819665104</v>
@@ -4144,7 +4146,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4189,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>610.2850646046534</v>
+        <v>1022.049772216476</v>
       </c>
       <c r="C2" t="n">
-        <v>217.1095631075839</v>
+        <v>1022.049772216476</v>
       </c>
       <c r="D2" t="n">
-        <v>47.31297010154361</v>
+        <v>636.6086434331432</v>
       </c>
       <c r="E2" t="n">
-        <v>47.31297010154361</v>
+        <v>636.6086434331432</v>
       </c>
       <c r="F2" t="n">
-        <v>47.31297010154361</v>
+        <v>636.6086434331432</v>
       </c>
       <c r="G2" t="n">
-        <v>47.31297010154361</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H2" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I2" t="n">
         <v>47.31297010154361</v>
@@ -4331,49 +4333,49 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K2" t="n">
-        <v>173.6308686433316</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L2" t="n">
-        <v>666.9511603618604</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M2" t="n">
-        <v>1212.952060406441</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N2" t="n">
-        <v>1740.763344043903</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O2" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P2" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q2" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R2" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S2" t="n">
-        <v>2199.134950018231</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T2" t="n">
-        <v>1975.634347577648</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="U2" t="n">
-        <v>1719.881618012246</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="V2" t="n">
-        <v>1377.774808715765</v>
+        <v>1819.035227007271</v>
       </c>
       <c r="W2" t="n">
-        <v>1006.775773684052</v>
+        <v>1819.035227007271</v>
       </c>
       <c r="X2" t="n">
-        <v>1006.775773684052</v>
+        <v>1819.035227007271</v>
       </c>
       <c r="Y2" t="n">
-        <v>610.2850646046534</v>
+        <v>1422.544517927872</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415753</v>
       </c>
       <c r="C3" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D3" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E3" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F3" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G3" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H3" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I3" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J3" t="n">
         <v>47.31297010154361</v>
@@ -4416,7 +4418,7 @@
         <v>367.0521161637701</v>
       </c>
       <c r="M3" t="n">
-        <v>623.6437572083089</v>
+        <v>952.5501211703722</v>
       </c>
       <c r="N3" t="n">
         <v>1209.141762214911</v>
@@ -4446,13 +4448,13 @@
         <v>1597.213828123731</v>
       </c>
       <c r="W3" t="n">
-        <v>1367.096582257017</v>
+        <v>1367.096582257018</v>
       </c>
       <c r="X3" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y3" t="n">
-        <v>998.4752876825364</v>
+        <v>998.4752876825366</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>948.7599926430961</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="C4" t="n">
-        <v>948.7599926430961</v>
+        <v>2195.443387143169</v>
       </c>
       <c r="D4" t="n">
-        <v>847.4030175052487</v>
+        <v>2065.65920586488</v>
       </c>
       <c r="E4" t="n">
-        <v>691.8442053644512</v>
+        <v>1910.100393724083</v>
       </c>
       <c r="F4" t="n">
-        <v>534.5182705774242</v>
+        <v>1752.774458937056</v>
       </c>
       <c r="G4" t="n">
-        <v>366.2642166768698</v>
+        <v>1752.774458937056</v>
       </c>
       <c r="H4" t="n">
-        <v>210.7856656383638</v>
+        <v>1597.29590789855</v>
       </c>
       <c r="I4" t="n">
-        <v>77.69124027544166</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="J4" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="K4" t="n">
-        <v>129.1480112114855</v>
+        <v>1546.036523645569</v>
       </c>
       <c r="L4" t="n">
-        <v>293.2756510852853</v>
+        <v>1710.164163519369</v>
       </c>
       <c r="M4" t="n">
-        <v>479.5672294235493</v>
+        <v>1896.455741857633</v>
       </c>
       <c r="N4" t="n">
-        <v>662.7568634547586</v>
+        <v>2079.645375888842</v>
       </c>
       <c r="O4" t="n">
-        <v>825.4616304964666</v>
+        <v>2242.350142930551</v>
       </c>
       <c r="P4" t="n">
-        <v>945.3377962730451</v>
+        <v>2362.226308707129</v>
       </c>
       <c r="Q4" t="n">
-        <v>948.7599926430961</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R4" t="n">
-        <v>948.7599926430961</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S4" t="n">
-        <v>948.7599926430961</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T4" t="n">
-        <v>948.7599926430961</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U4" t="n">
-        <v>948.7599926430961</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V4" t="n">
-        <v>948.7599926430961</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W4" t="n">
-        <v>948.7599926430961</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X4" t="n">
-        <v>948.7599926430961</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Y4" t="n">
-        <v>948.7599926430961</v>
+        <v>2365.64850507718</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1307.169534131323</v>
+        <v>1722.386602293135</v>
       </c>
       <c r="C5" t="n">
-        <v>1307.169534131323</v>
+        <v>1329.211100796066</v>
       </c>
       <c r="D5" t="n">
-        <v>921.7284053479907</v>
+        <v>1329.211100796066</v>
       </c>
       <c r="E5" t="n">
-        <v>921.7284053479907</v>
+        <v>926.6275759126104</v>
       </c>
       <c r="F5" t="n">
-        <v>921.7284053479907</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="G5" t="n">
         <v>509.7331374425881</v>
@@ -4577,10 +4579,10 @@
         <v>899.6156178475343</v>
       </c>
       <c r="N5" t="n">
-        <v>1427.426901484996</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O5" t="n">
-        <v>1867.466502377325</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P5" t="n">
         <v>2180.802944936232</v>
@@ -4595,22 +4597,22 @@
         <v>2327.655591362702</v>
       </c>
       <c r="T5" t="n">
-        <v>2104.154988922119</v>
+        <v>2122.881348004532</v>
       </c>
       <c r="U5" t="n">
-        <v>2104.154988922119</v>
+        <v>2122.881348004532</v>
       </c>
       <c r="V5" t="n">
-        <v>2104.154988922119</v>
+        <v>2122.881348004532</v>
       </c>
       <c r="W5" t="n">
-        <v>2104.154988922119</v>
+        <v>2122.881348004532</v>
       </c>
       <c r="X5" t="n">
-        <v>2104.154988922119</v>
+        <v>2122.881348004532</v>
       </c>
       <c r="Y5" t="n">
-        <v>1707.66427984272</v>
+        <v>2122.881348004532</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415753</v>
       </c>
       <c r="C6" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016675</v>
       </c>
       <c r="D6" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231478</v>
       </c>
       <c r="E6" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340356</v>
       </c>
       <c r="F6" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171674</v>
       </c>
       <c r="G6" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890318</v>
       </c>
       <c r="H6" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963275</v>
       </c>
       <c r="I6" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J6" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K6" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="L6" t="n">
-        <v>530.8790559998569</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="M6" t="n">
-        <v>858.0088487631995</v>
+        <v>632.8109751081457</v>
       </c>
       <c r="N6" t="n">
-        <v>1443.506853769802</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O6" t="n">
-        <v>1960.027136360783</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P6" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q6" t="n">
         <v>2365.64850507718</v>
@@ -4683,13 +4685,13 @@
         <v>1597.213828123731</v>
       </c>
       <c r="W6" t="n">
-        <v>1367.096582257017</v>
+        <v>1367.096582257018</v>
       </c>
       <c r="X6" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y6" t="n">
-        <v>998.4752876825364</v>
+        <v>998.4752876825366</v>
       </c>
     </row>
     <row r="7">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1141.217531504963</v>
+        <v>578.8255885061483</v>
       </c>
       <c r="C8" t="n">
-        <v>748.0420300078936</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="D8" t="n">
-        <v>748.0420300078936</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="E8" t="n">
-        <v>748.0420300078936</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="F8" t="n">
-        <v>331.1475915378713</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>47.31297010154361</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="L8" t="n">
-        <v>540.6332618200724</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="M8" t="n">
-        <v>1086.634161864653</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N8" t="n">
-        <v>1614.445445502115</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O8" t="n">
-        <v>2054.485046394444</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U8" t="n">
-        <v>2327.655591362702</v>
+        <v>2109.895775511779</v>
       </c>
       <c r="V8" t="n">
-        <v>2327.655591362702</v>
+        <v>2109.895775511779</v>
       </c>
       <c r="W8" t="n">
-        <v>2327.655591362702</v>
+        <v>1765.263648363887</v>
       </c>
       <c r="X8" t="n">
-        <v>1938.202986295759</v>
+        <v>1375.811043296944</v>
       </c>
       <c r="Y8" t="n">
-        <v>1541.71227721636</v>
+        <v>979.3203342175452</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4883,25 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K9" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L9" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.14176221491</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805891</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.648505077179</v>
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154361</v>
+        <v>778.5548747090853</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154361</v>
+        <v>622.9217616116</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>467.3629494708025</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>310.0370146837755</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>141.782960783221</v>
       </c>
       <c r="H10" t="n">
         <v>47.31297010154361</v>
@@ -4990,22 +4992,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>713.0409408113302</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>427.6021490532311</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>161.6228038740554</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W10" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X10" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1927.160845651305</v>
+        <v>825.9296003819453</v>
       </c>
       <c r="C11" t="n">
-        <v>1533.985344154236</v>
+        <v>432.7540988848759</v>
       </c>
       <c r="D11" t="n">
-        <v>1533.985344154236</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E11" t="n">
-        <v>1339.790331424607</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F11" t="n">
-        <v>922.895892954585</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G11" t="n">
-        <v>509.7331374425881</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H11" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I11" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J11" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K11" t="n">
-        <v>47.31297010154361</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L11" t="n">
-        <v>318.7636682303387</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M11" t="n">
-        <v>864.7645682749193</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N11" t="n">
-        <v>1392.575851912381</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O11" t="n">
-        <v>1832.61545280471</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P11" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q11" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R11" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S11" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T11" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U11" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V11" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W11" t="n">
-        <v>2327.655591362702</v>
+        <v>2012.367660239684</v>
       </c>
       <c r="X11" t="n">
-        <v>2327.655591362702</v>
+        <v>1622.915055172741</v>
       </c>
       <c r="Y11" t="n">
-        <v>2327.655591362702</v>
+        <v>1226.424346093342</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C12" t="n">
-        <v>696.0247228016675</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D12" t="n">
-        <v>565.9357554231478</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E12" t="n">
-        <v>429.4892645340356</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F12" t="n">
-        <v>305.0574584171674</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G12" t="n">
-        <v>184.9976404890318</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H12" t="n">
-        <v>96.70022408963275</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I12" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J12" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K12" t="n">
-        <v>47.31297010154361</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L12" t="n">
-        <v>530.8790559998569</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="M12" t="n">
-        <v>1116.377061006459</v>
+        <v>1065.6651033901</v>
       </c>
       <c r="N12" t="n">
-        <v>1443.506853769802</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O12" t="n">
-        <v>1960.027136360783</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P12" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q12" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R12" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S12" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T12" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U12" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V12" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W12" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X12" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y12" t="n">
-        <v>998.4752876825366</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>47.31297010154361</v>
+        <v>540.4399127684381</v>
       </c>
       <c r="C13" t="n">
-        <v>47.31297010154361</v>
+        <v>540.4399127684381</v>
       </c>
       <c r="D13" t="n">
-        <v>47.31297010154361</v>
+        <v>384.8067996709529</v>
       </c>
       <c r="E13" t="n">
-        <v>47.31297010154361</v>
+        <v>384.8067996709529</v>
       </c>
       <c r="F13" t="n">
-        <v>47.31297010154361</v>
+        <v>227.4808648839258</v>
       </c>
       <c r="G13" t="n">
-        <v>47.31297010154361</v>
+        <v>59.22681098337139</v>
       </c>
       <c r="H13" t="n">
         <v>47.31297010154361</v>
@@ -5233,16 +5235,16 @@
         <v>948.7599926430961</v>
       </c>
       <c r="V13" t="n">
-        <v>682.7806474639203</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W13" t="n">
-        <v>399.450245395098</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X13" t="n">
-        <v>165.3699231780811</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y13" t="n">
-        <v>47.31297010154361</v>
+        <v>725.6479314597394</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1233.594345002359</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="C14" t="n">
-        <v>1233.594345002359</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="D14" t="n">
-        <v>1233.594345002359</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="E14" t="n">
-        <v>877.3701640835627</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="F14" t="n">
-        <v>460.4757256135405</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G14" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H14" t="n">
         <v>47.31297010154361</v>
@@ -5285,10 +5287,10 @@
         <v>899.6156178475343</v>
       </c>
       <c r="M14" t="n">
-        <v>1397.79762054739</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N14" t="n">
-        <v>1925.608904184852</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O14" t="n">
         <v>2365.64850507718</v>
@@ -5306,22 +5308,22 @@
         <v>2365.64850507718</v>
       </c>
       <c r="T14" t="n">
-        <v>2365.64850507718</v>
+        <v>2201.89627826241</v>
       </c>
       <c r="U14" t="n">
-        <v>2365.64850507718</v>
+        <v>1946.143548697009</v>
       </c>
       <c r="V14" t="n">
-        <v>2023.541695780699</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="W14" t="n">
-        <v>2023.541695780699</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="X14" t="n">
-        <v>1634.089090713755</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="Y14" t="n">
-        <v>1634.089090713755</v>
+        <v>1604.036739400527</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5357,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J15" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K15" t="n">
-        <v>480.1670983834975</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L15" t="n">
-        <v>623.6437572083089</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="M15" t="n">
-        <v>623.6437572083089</v>
+        <v>952.5501211703722</v>
       </c>
       <c r="N15" t="n">
-        <v>1209.141762214911</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="O15" t="n">
-        <v>1725.662044805892</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P15" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q15" t="n">
         <v>2365.64850507718</v>
@@ -5410,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>47.31297010154361</v>
+        <v>306.3595905514212</v>
       </c>
       <c r="C16" t="n">
-        <v>47.31297010154361</v>
+        <v>136.1544726174104</v>
       </c>
       <c r="D16" t="n">
-        <v>47.31297010154361</v>
+        <v>136.1544726174104</v>
       </c>
       <c r="E16" t="n">
-        <v>47.31297010154361</v>
+        <v>136.1544726174104</v>
       </c>
       <c r="F16" t="n">
-        <v>47.31297010154361</v>
+        <v>136.1544726174104</v>
       </c>
       <c r="G16" t="n">
         <v>47.31297010154361</v>
@@ -5458,28 +5460,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R16" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S16" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T16" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U16" t="n">
-        <v>100.8850758683575</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V16" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W16" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X16" t="n">
-        <v>47.31297010154361</v>
+        <v>714.6796704260792</v>
       </c>
       <c r="Y16" t="n">
-        <v>47.31297010154361</v>
+        <v>491.5676092427225</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1673.129190464088</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C17" t="n">
-        <v>1279.953688967018</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D17" t="n">
-        <v>1279.953688967018</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E17" t="n">
-        <v>877.3701640835627</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F17" t="n">
-        <v>460.4757256135405</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G17" t="n">
         <v>47.31297010154361</v>
@@ -5519,19 +5521,19 @@
         <v>550.9450990378335</v>
       </c>
       <c r="L17" t="n">
-        <v>864.7645682749193</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M17" t="n">
-        <v>864.7645682749193</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N17" t="n">
-        <v>1392.575851912381</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O17" t="n">
-        <v>1832.61545280471</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P17" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q17" t="n">
         <v>2365.64850507718</v>
@@ -5543,22 +5545,22 @@
         <v>2365.64850507718</v>
       </c>
       <c r="T17" t="n">
-        <v>2365.64850507718</v>
+        <v>2202.609603852878</v>
       </c>
       <c r="U17" t="n">
-        <v>2365.64850507718</v>
+        <v>1946.856874287477</v>
       </c>
       <c r="V17" t="n">
-        <v>2365.64850507718</v>
+        <v>1604.750064990995</v>
       </c>
       <c r="W17" t="n">
-        <v>2365.64850507718</v>
+        <v>1233.751029959283</v>
       </c>
       <c r="X17" t="n">
-        <v>2069.619899543487</v>
+        <v>844.2984248923394</v>
       </c>
       <c r="Y17" t="n">
-        <v>1673.129190464088</v>
+        <v>447.8077158129405</v>
       </c>
     </row>
     <row r="18">
@@ -5568,67 +5570,67 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C18" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D18" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E18" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F18" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G18" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H18" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I18" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J18" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K18" t="n">
-        <v>47.31297010154367</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L18" t="n">
-        <v>530.879055999857</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M18" t="n">
-        <v>1116.377061006459</v>
+        <v>1436.116207068686</v>
       </c>
       <c r="N18" t="n">
-        <v>1701.875066013061</v>
+        <v>1436.116207068686</v>
       </c>
       <c r="O18" t="n">
-        <v>2218.395348604042</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P18" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q18" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R18" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S18" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T18" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U18" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V18" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W18" t="n">
         <v>1367.096582257017</v>
@@ -5637,7 +5639,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y18" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="19">
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.31297010154361</v>
+        <v>226.4247948505294</v>
       </c>
       <c r="C19" t="n">
-        <v>47.31297010154361</v>
+        <v>56.21967691651864</v>
       </c>
       <c r="D19" t="n">
-        <v>47.31297010154361</v>
+        <v>56.21967691651864</v>
       </c>
       <c r="E19" t="n">
-        <v>47.31297010154361</v>
+        <v>56.21967691651864</v>
       </c>
       <c r="F19" t="n">
-        <v>47.31297010154361</v>
+        <v>56.21967691651864</v>
       </c>
       <c r="G19" t="n">
         <v>47.31297010154361</v>
@@ -5698,25 +5700,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S19" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T19" t="n">
-        <v>713.0409408113302</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="U19" t="n">
-        <v>713.0409408113302</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="V19" t="n">
-        <v>447.0615956321544</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="W19" t="n">
-        <v>163.7311935633321</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="X19" t="n">
-        <v>163.7311935633321</v>
+        <v>226.4247948505294</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.31297010154361</v>
+        <v>226.4247948505294</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1984.296771771504</v>
+        <v>1242.824038851968</v>
       </c>
       <c r="C20" t="n">
-        <v>1591.121270274435</v>
+        <v>849.6485373548981</v>
       </c>
       <c r="D20" t="n">
-        <v>1205.680141491103</v>
+        <v>464.2074085715658</v>
       </c>
       <c r="E20" t="n">
-        <v>803.0966166076471</v>
+        <v>464.2074085715658</v>
       </c>
       <c r="F20" t="n">
-        <v>386.2021781376249</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G20" t="n">
-        <v>386.2021781376249</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H20" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358934</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M20" t="n">
-        <v>1605.072448403515</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040977</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O20" t="n">
-        <v>2572.923332933306</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P20" t="n">
-        <v>2921.110825064828</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S20" t="n">
-        <v>2939.442830146827</v>
+        <v>2208.92619630043</v>
       </c>
       <c r="T20" t="n">
-        <v>2715.942227706244</v>
+        <v>1985.425593859846</v>
       </c>
       <c r="U20" t="n">
-        <v>2715.942227706244</v>
+        <v>1985.425593859846</v>
       </c>
       <c r="V20" t="n">
-        <v>2715.942227706244</v>
+        <v>1643.318784563364</v>
       </c>
       <c r="W20" t="n">
-        <v>2715.942227706244</v>
+        <v>1643.318784563364</v>
       </c>
       <c r="X20" t="n">
-        <v>2715.942227706244</v>
+        <v>1643.318784563364</v>
       </c>
       <c r="Y20" t="n">
-        <v>2384.791517482901</v>
+        <v>1643.318784563364</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>861.4851108441464</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C21" t="n">
-        <v>710.8308804042387</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D21" t="n">
-        <v>580.741913025719</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E21" t="n">
-        <v>444.2954221366068</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F21" t="n">
-        <v>319.8636160197386</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G21" t="n">
-        <v>199.803798091603</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H21" t="n">
-        <v>111.5063816922039</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I21" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J21" t="n">
-        <v>175.2341099238429</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K21" t="n">
-        <v>175.2341099238429</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L21" t="n">
-        <v>175.2341099238429</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M21" t="n">
-        <v>803.0057595505241</v>
+        <v>1436.116207068686</v>
       </c>
       <c r="N21" t="n">
-        <v>1458.783730761083</v>
+        <v>1436.116207068686</v>
       </c>
       <c r="O21" t="n">
-        <v>1975.304013352064</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P21" t="n">
-        <v>2146.089571124861</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q21" t="n">
-        <v>2380.454662679751</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R21" t="n">
-        <v>2356.537619577816</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S21" t="n">
-        <v>2221.606942477685</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T21" t="n">
-        <v>2044.623130676593</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U21" t="n">
-        <v>1834.559987355235</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V21" t="n">
-        <v>1612.019985726302</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W21" t="n">
-        <v>1381.902739859589</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X21" t="n">
-        <v>1192.595662209601</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y21" t="n">
-        <v>1013.281445285108</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2401.698912613887</v>
+        <v>1619.834595633113</v>
       </c>
       <c r="C22" t="n">
-        <v>2231.493794679876</v>
+        <v>1619.834595633113</v>
       </c>
       <c r="D22" t="n">
-        <v>2231.493794679876</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="E22" t="n">
-        <v>2231.493794679876</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="F22" t="n">
-        <v>2231.493794679876</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="G22" t="n">
-        <v>2231.493794679876</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="H22" t="n">
-        <v>2231.493794679876</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="I22" t="n">
-        <v>2231.493794679876</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="J22" t="n">
-        <v>2204.509362664224</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="K22" t="n">
-        <v>2286.344403774166</v>
+        <v>1546.036523645569</v>
       </c>
       <c r="L22" t="n">
-        <v>2450.472043647965</v>
+        <v>1710.164163519369</v>
       </c>
       <c r="M22" t="n">
-        <v>2636.763621986229</v>
+        <v>1896.455741857633</v>
       </c>
       <c r="N22" t="n">
-        <v>2819.953256017438</v>
+        <v>2079.645375888842</v>
       </c>
       <c r="O22" t="n">
-        <v>2982.658023059147</v>
+        <v>2242.350142930551</v>
       </c>
       <c r="P22" t="n">
-        <v>3102.534188835725</v>
+        <v>2362.226308707129</v>
       </c>
       <c r="Q22" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R22" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S22" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T22" t="n">
-        <v>2870.237333374011</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U22" t="n">
-        <v>2870.237333374011</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V22" t="n">
-        <v>2870.237333374011</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W22" t="n">
-        <v>2586.906931305188</v>
+        <v>2082.318103008358</v>
       </c>
       <c r="X22" t="n">
-        <v>2586.906931305188</v>
+        <v>1848.237780791341</v>
       </c>
       <c r="Y22" t="n">
-        <v>2586.906931305188</v>
+        <v>1805.042614324414</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2070.736893073899</v>
+        <v>1208.706155899126</v>
       </c>
       <c r="C23" t="n">
-        <v>2070.736893073899</v>
+        <v>1208.706155899126</v>
       </c>
       <c r="D23" t="n">
-        <v>1757.180013910635</v>
+        <v>1208.706155899126</v>
       </c>
       <c r="E23" t="n">
-        <v>1354.596489027179</v>
+        <v>806.1226310156701</v>
       </c>
       <c r="F23" t="n">
-        <v>937.702050557157</v>
+        <v>806.1226310156701</v>
       </c>
       <c r="G23" t="n">
-        <v>524.5392950451601</v>
+        <v>392.9598755036732</v>
       </c>
       <c r="H23" t="n">
-        <v>200.4562446116507</v>
+        <v>68.87682507016387</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129436</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404055</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L23" t="n">
-        <v>1059.071548358934</v>
+        <v>540.6332618200724</v>
       </c>
       <c r="M23" t="n">
-        <v>1605.072448403515</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040977</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O23" t="n">
-        <v>2572.923332933306</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P23" t="n">
-        <v>2921.110825064828</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205776</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S23" t="n">
-        <v>2939.442830146827</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T23" t="n">
-        <v>2715.942227706244</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U23" t="n">
-        <v>2460.189498140842</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V23" t="n">
-        <v>2460.189498140842</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W23" t="n">
-        <v>2460.189498140842</v>
+        <v>1994.649470045468</v>
       </c>
       <c r="X23" t="n">
-        <v>2070.736893073899</v>
+        <v>1605.196864978524</v>
       </c>
       <c r="Y23" t="n">
-        <v>2070.736893073899</v>
+        <v>1208.706155899126</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>861.4851108441464</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C24" t="n">
-        <v>710.8308804042387</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D24" t="n">
-        <v>580.741913025719</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E24" t="n">
-        <v>444.2954221366068</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F24" t="n">
-        <v>319.8636160197386</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G24" t="n">
-        <v>199.803798091603</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H24" t="n">
-        <v>111.5063816922039</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I24" t="n">
-        <v>62.11912770411553</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K24" t="n">
-        <v>381.858273766342</v>
+        <v>194.5661265746808</v>
       </c>
       <c r="L24" t="n">
-        <v>865.4243596646552</v>
+        <v>678.1322124729941</v>
       </c>
       <c r="M24" t="n">
-        <v>865.4243596646552</v>
+        <v>1263.630217479596</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1849.128222486198</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P24" t="n">
-        <v>2146.089571124861</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q24" t="n">
-        <v>2380.454662679751</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R24" t="n">
-        <v>2356.537619577816</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S24" t="n">
-        <v>2221.606942477685</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T24" t="n">
-        <v>2044.623130676593</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U24" t="n">
-        <v>1834.559987355235</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V24" t="n">
-        <v>1612.019985726302</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W24" t="n">
-        <v>1381.902739859589</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X24" t="n">
-        <v>1192.595662209601</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y24" t="n">
-        <v>1013.281445285108</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3105.956385205776</v>
+        <v>725.6479314597394</v>
       </c>
       <c r="C25" t="n">
-        <v>3105.956385205776</v>
+        <v>725.6479314597394</v>
       </c>
       <c r="D25" t="n">
-        <v>2974.221139894031</v>
+        <v>725.6479314597394</v>
       </c>
       <c r="E25" t="n">
-        <v>2818.662327753234</v>
+        <v>570.0891193189419</v>
       </c>
       <c r="F25" t="n">
-        <v>2661.336392966206</v>
+        <v>412.7631845319149</v>
       </c>
       <c r="G25" t="n">
-        <v>2493.082339065652</v>
+        <v>244.5091306313604</v>
       </c>
       <c r="H25" t="n">
-        <v>2337.603788027146</v>
+        <v>89.03057959285439</v>
       </c>
       <c r="I25" t="n">
-        <v>2204.509362664224</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J25" t="n">
-        <v>2204.509362664224</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K25" t="n">
-        <v>2286.344403774166</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L25" t="n">
-        <v>2450.472043647965</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M25" t="n">
-        <v>2636.763621986229</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N25" t="n">
-        <v>2819.953256017438</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O25" t="n">
-        <v>2982.658023059147</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P25" t="n">
-        <v>3102.534188835725</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q25" t="n">
-        <v>3105.956385205776</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R25" t="n">
-        <v>3105.956385205776</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S25" t="n">
-        <v>3105.956385205776</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T25" t="n">
-        <v>3105.956385205776</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U25" t="n">
-        <v>3105.956385205776</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V25" t="n">
-        <v>3105.956385205776</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W25" t="n">
-        <v>3105.956385205776</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X25" t="n">
-        <v>3105.956385205776</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y25" t="n">
-        <v>3105.956385205776</v>
+        <v>725.6479314597394</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1579.705190930838</v>
+        <v>1994.649470045468</v>
       </c>
       <c r="C26" t="n">
-        <v>1279.953688967018</v>
+        <v>1601.473968548398</v>
       </c>
       <c r="D26" t="n">
-        <v>1279.953688967018</v>
+        <v>1216.032839765066</v>
       </c>
       <c r="E26" t="n">
-        <v>877.3701640835627</v>
+        <v>813.4493148816105</v>
       </c>
       <c r="F26" t="n">
-        <v>460.4757256135405</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G26" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H26" t="n">
         <v>47.31297010154361</v>
@@ -6227,19 +6229,19 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K26" t="n">
-        <v>406.2953261290054</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L26" t="n">
-        <v>899.6156178475343</v>
+        <v>503.6092283712875</v>
       </c>
       <c r="M26" t="n">
-        <v>1445.616517892115</v>
+        <v>1049.610128415868</v>
       </c>
       <c r="N26" t="n">
-        <v>1973.427801529577</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O26" t="n">
-        <v>2365.64850507718</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P26" t="n">
         <v>2365.64850507718</v>
@@ -6263,13 +6265,13 @@
         <v>2365.64850507718</v>
       </c>
       <c r="W26" t="n">
-        <v>2365.64850507718</v>
+        <v>1994.649470045468</v>
       </c>
       <c r="X26" t="n">
-        <v>1976.195900010237</v>
+        <v>1994.649470045468</v>
       </c>
       <c r="Y26" t="n">
-        <v>1579.705190930838</v>
+        <v>1994.649470045468</v>
       </c>
     </row>
     <row r="27">
@@ -6279,67 +6281,67 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C27" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D27" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E27" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F27" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G27" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H27" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I27" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J27" t="n">
-        <v>160.427952321271</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K27" t="n">
-        <v>480.1670983834974</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="L27" t="n">
-        <v>963.7331842818107</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="M27" t="n">
-        <v>963.7331842818107</v>
+        <v>623.6437572083089</v>
       </c>
       <c r="N27" t="n">
-        <v>1209.14176221491</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O27" t="n">
-        <v>1725.662044805891</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P27" t="n">
-        <v>2131.283413522289</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q27" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R27" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S27" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T27" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U27" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V27" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W27" t="n">
         <v>1367.096582257017</v>
@@ -6348,7 +6350,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y27" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="28">
@@ -6412,22 +6414,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T28" t="n">
-        <v>948.7599926430961</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U28" t="n">
-        <v>663.3212008849971</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V28" t="n">
-        <v>397.3418557058213</v>
+        <v>161.6228038740554</v>
       </c>
       <c r="W28" t="n">
-        <v>397.3418557058213</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X28" t="n">
-        <v>397.3418557058213</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y28" t="n">
-        <v>174.2297945224647</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>825.9296003819453</v>
+        <v>835.3376237683314</v>
       </c>
       <c r="C29" t="n">
-        <v>432.7540988848759</v>
+        <v>835.3376237683314</v>
       </c>
       <c r="D29" t="n">
-        <v>47.31297010154361</v>
+        <v>449.8964949849991</v>
       </c>
       <c r="E29" t="n">
         <v>47.31297010154361</v>
@@ -6467,19 +6469,19 @@
         <v>47.31297010154361</v>
       </c>
       <c r="L29" t="n">
-        <v>318.7636682303387</v>
+        <v>503.6092283712875</v>
       </c>
       <c r="M29" t="n">
-        <v>864.7645682749193</v>
+        <v>1049.610128415868</v>
       </c>
       <c r="N29" t="n">
-        <v>1392.575851912381</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O29" t="n">
-        <v>1832.61545280471</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P29" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q29" t="n">
         <v>2365.64850507718</v>
@@ -6500,13 +6502,13 @@
         <v>2365.64850507718</v>
       </c>
       <c r="W29" t="n">
-        <v>1994.649470045468</v>
+        <v>2021.77568362607</v>
       </c>
       <c r="X29" t="n">
-        <v>1605.196864978524</v>
+        <v>1632.323078559127</v>
       </c>
       <c r="Y29" t="n">
-        <v>1208.706155899126</v>
+        <v>1235.832369479728</v>
       </c>
     </row>
     <row r="30">
@@ -6543,22 +6545,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K30" t="n">
-        <v>47.31297010154361</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L30" t="n">
-        <v>530.8790559998569</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M30" t="n">
-        <v>1116.377061006459</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="N30" t="n">
-        <v>1701.875066013061</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O30" t="n">
-        <v>2218.395348604042</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P30" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q30" t="n">
         <v>2365.648505077179</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>373.1512011330396</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="C31" t="n">
-        <v>202.9460831990289</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="D31" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="E31" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="F31" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="G31" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="H31" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="I31" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="J31" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="K31" t="n">
-        <v>129.1480112114855</v>
+        <v>1546.036523645569</v>
       </c>
       <c r="L31" t="n">
-        <v>293.2756510852853</v>
+        <v>1710.164163519369</v>
       </c>
       <c r="M31" t="n">
-        <v>479.5672294235493</v>
+        <v>1896.455741857633</v>
       </c>
       <c r="N31" t="n">
-        <v>662.7568634547586</v>
+        <v>2079.645375888842</v>
       </c>
       <c r="O31" t="n">
-        <v>825.4616304964666</v>
+        <v>2242.350142930551</v>
       </c>
       <c r="P31" t="n">
-        <v>945.3377962730451</v>
+        <v>2362.226308707129</v>
       </c>
       <c r="Q31" t="n">
-        <v>948.7599926430961</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R31" t="n">
-        <v>948.7599926430961</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S31" t="n">
-        <v>948.7599926430961</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T31" t="n">
-        <v>948.7599926430961</v>
+        <v>2129.929453245415</v>
       </c>
       <c r="U31" t="n">
-        <v>948.7599926430961</v>
+        <v>1844.490661487315</v>
       </c>
       <c r="V31" t="n">
-        <v>948.7599926430961</v>
+        <v>1578.51131630814</v>
       </c>
       <c r="W31" t="n">
-        <v>948.7599926430961</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="X31" t="n">
-        <v>714.6796704260792</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="Y31" t="n">
-        <v>558.3592198243409</v>
+        <v>1464.201482535628</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1179.210445219441</v>
+        <v>1402.149495227435</v>
       </c>
       <c r="C32" t="n">
-        <v>786.0349437223717</v>
+        <v>1008.973993730366</v>
       </c>
       <c r="D32" t="n">
-        <v>786.0349437223717</v>
+        <v>623.5328649470334</v>
       </c>
       <c r="E32" t="n">
-        <v>383.4514188389163</v>
+        <v>623.5328649470334</v>
       </c>
       <c r="F32" t="n">
-        <v>47.31297010154361</v>
+        <v>623.5328649470334</v>
       </c>
       <c r="G32" t="n">
-        <v>47.31297010154361</v>
+        <v>210.3701094350366</v>
       </c>
       <c r="H32" t="n">
         <v>47.31297010154361</v>
@@ -6701,19 +6703,19 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K32" t="n">
-        <v>47.31297010154361</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L32" t="n">
-        <v>503.6092283712875</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M32" t="n">
-        <v>1049.610128415868</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N32" t="n">
-        <v>1577.42141205333</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O32" t="n">
-        <v>2017.461012945658</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P32" t="n">
         <v>2365.64850507718</v>
@@ -6725,25 +6727,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S32" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T32" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="U32" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="V32" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="W32" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="X32" t="n">
-        <v>1976.195900010237</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="Y32" t="n">
-        <v>1579.705190930838</v>
+        <v>1802.644240938832</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C33" t="n">
-        <v>696.0247228016675</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D33" t="n">
-        <v>565.9357554231478</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E33" t="n">
-        <v>429.4892645340356</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F33" t="n">
-        <v>305.0574584171674</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G33" t="n">
-        <v>184.9976404890318</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H33" t="n">
-        <v>96.70022408963275</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I33" t="n">
-        <v>47.31297010154434</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J33" t="n">
-        <v>47.31297010154434</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K33" t="n">
-        <v>194.5661265746817</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L33" t="n">
-        <v>678.132212472995</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M33" t="n">
-        <v>1263.630217479597</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N33" t="n">
-        <v>1849.128222486199</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O33" t="n">
-        <v>2365.64850507718</v>
+        <v>2218.395348604042</v>
       </c>
       <c r="P33" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q33" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R33" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S33" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T33" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U33" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V33" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W33" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X33" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y33" t="n">
-        <v>998.4752876825366</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2365.64850507718</v>
+        <v>1945.340283364007</v>
       </c>
       <c r="C34" t="n">
-        <v>2256.451947499998</v>
+        <v>1945.340283364007</v>
       </c>
       <c r="D34" t="n">
-        <v>2100.818834402513</v>
+        <v>1945.340283364007</v>
       </c>
       <c r="E34" t="n">
-        <v>1945.260022261715</v>
+        <v>1789.781471223209</v>
       </c>
       <c r="F34" t="n">
-        <v>1787.934087474688</v>
+        <v>1632.455536436182</v>
       </c>
       <c r="G34" t="n">
-        <v>1619.680033574134</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="H34" t="n">
         <v>1464.201482535628</v>
@@ -6880,28 +6882,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R34" t="n">
-        <v>2365.64850507718</v>
+        <v>2241.747515709757</v>
       </c>
       <c r="S34" t="n">
-        <v>2365.64850507718</v>
+        <v>2038.931431892307</v>
       </c>
       <c r="T34" t="n">
-        <v>2365.64850507718</v>
+        <v>1945.340283364007</v>
       </c>
       <c r="U34" t="n">
-        <v>2365.64850507718</v>
+        <v>1945.340283364007</v>
       </c>
       <c r="V34" t="n">
-        <v>2365.64850507718</v>
+        <v>1945.340283364007</v>
       </c>
       <c r="W34" t="n">
-        <v>2365.64850507718</v>
+        <v>1945.340283364007</v>
       </c>
       <c r="X34" t="n">
-        <v>2365.64850507718</v>
+        <v>1945.340283364007</v>
       </c>
       <c r="Y34" t="n">
-        <v>2365.64850507718</v>
+        <v>1945.340283364007</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1994.649470045468</v>
+        <v>2058.57031924742</v>
       </c>
       <c r="C35" t="n">
-        <v>1601.473968548398</v>
+        <v>1665.394817750351</v>
       </c>
       <c r="D35" t="n">
-        <v>1216.032839765066</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E35" t="n">
-        <v>813.4493148816105</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F35" t="n">
-        <v>396.5548764115882</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G35" t="n">
         <v>47.31297010154361</v>
@@ -6971,16 +6973,16 @@
         <v>2365.64850507718</v>
       </c>
       <c r="V35" t="n">
-        <v>2365.64850507718</v>
+        <v>2058.57031924742</v>
       </c>
       <c r="W35" t="n">
-        <v>1994.649470045468</v>
+        <v>2058.57031924742</v>
       </c>
       <c r="X35" t="n">
-        <v>1994.649470045468</v>
+        <v>2058.57031924742</v>
       </c>
       <c r="Y35" t="n">
-        <v>1994.649470045468</v>
+        <v>2058.57031924742</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7016,25 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J36" t="n">
-        <v>160.427952321271</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K36" t="n">
-        <v>160.427952321271</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L36" t="n">
-        <v>623.643757208308</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M36" t="n">
-        <v>1209.14176221491</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N36" t="n">
-        <v>1209.14176221491</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O36" t="n">
-        <v>1725.662044805891</v>
+        <v>2218.395348604042</v>
       </c>
       <c r="P36" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q36" t="n">
         <v>2365.648505077179</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C37" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="D37" t="n">
-        <v>47.31297010154361</v>
+        <v>817.0247473313507</v>
       </c>
       <c r="E37" t="n">
-        <v>47.31297010154361</v>
+        <v>661.4659351905532</v>
       </c>
       <c r="F37" t="n">
-        <v>47.31297010154361</v>
+        <v>504.1400004035262</v>
       </c>
       <c r="G37" t="n">
-        <v>47.31297010154361</v>
+        <v>335.8859465029718</v>
       </c>
       <c r="H37" t="n">
-        <v>47.31297010154361</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="I37" t="n">
         <v>47.31297010154361</v>
@@ -7123,22 +7125,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T37" t="n">
-        <v>882.0615091076409</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U37" t="n">
-        <v>596.6227173495417</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V37" t="n">
-        <v>330.643372170366</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W37" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X37" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y37" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1594.628716014141</v>
+        <v>1969.157795997781</v>
       </c>
       <c r="C38" t="n">
-        <v>1201.453214517072</v>
+        <v>1665.394817750351</v>
       </c>
       <c r="D38" t="n">
-        <v>1201.453214517072</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E38" t="n">
-        <v>1201.453214517072</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F38" t="n">
-        <v>784.5587760470498</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G38" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H38" t="n">
         <v>47.31297010154361</v>
@@ -7178,13 +7180,13 @@
         <v>406.2953261290054</v>
       </c>
       <c r="L38" t="n">
-        <v>899.6156178475343</v>
+        <v>851.7967205028091</v>
       </c>
       <c r="M38" t="n">
-        <v>1445.616517892115</v>
+        <v>1397.79762054739</v>
       </c>
       <c r="N38" t="n">
-        <v>1973.427801529577</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O38" t="n">
         <v>2365.64850507718</v>
@@ -7205,19 +7207,19 @@
         <v>2365.64850507718</v>
       </c>
       <c r="U38" t="n">
-        <v>2109.895775511779</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V38" t="n">
-        <v>1965.627751045854</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W38" t="n">
-        <v>1594.628716014141</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X38" t="n">
-        <v>1594.628716014141</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Y38" t="n">
-        <v>1594.628716014141</v>
+        <v>1969.157795997781</v>
       </c>
     </row>
     <row r="39">
@@ -7227,67 +7229,67 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C39" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D39" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E39" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F39" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G39" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H39" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I39" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J39" t="n">
-        <v>47.31297010154367</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K39" t="n">
-        <v>367.0521161637701</v>
+        <v>160.427952321271</v>
       </c>
       <c r="L39" t="n">
-        <v>850.6182020620834</v>
+        <v>643.9940382195842</v>
       </c>
       <c r="M39" t="n">
-        <v>1209.141762214911</v>
+        <v>1229.492043226187</v>
       </c>
       <c r="N39" t="n">
-        <v>1209.141762214911</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O39" t="n">
-        <v>1725.662044805892</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P39" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q39" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R39" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S39" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T39" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U39" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V39" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W39" t="n">
         <v>1367.096582257017</v>
@@ -7296,7 +7298,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y39" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>386.3238676264566</v>
+        <v>1783.152729110954</v>
       </c>
       <c r="C40" t="n">
-        <v>386.3238676264566</v>
+        <v>1783.152729110954</v>
       </c>
       <c r="D40" t="n">
-        <v>386.3238676264566</v>
+        <v>1783.152729110954</v>
       </c>
       <c r="E40" t="n">
-        <v>386.3238676264566</v>
+        <v>1783.152729110954</v>
       </c>
       <c r="F40" t="n">
-        <v>371.0455750406041</v>
+        <v>1783.152729110954</v>
       </c>
       <c r="G40" t="n">
-        <v>202.7915211400496</v>
+        <v>1783.152729110954</v>
       </c>
       <c r="H40" t="n">
-        <v>47.31297010154361</v>
+        <v>1627.674178072448</v>
       </c>
       <c r="I40" t="n">
-        <v>47.31297010154361</v>
+        <v>1494.579752709526</v>
       </c>
       <c r="J40" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="K40" t="n">
-        <v>129.1480112114855</v>
+        <v>1546.036523645569</v>
       </c>
       <c r="L40" t="n">
-        <v>293.2756510852853</v>
+        <v>1710.164163519369</v>
       </c>
       <c r="M40" t="n">
-        <v>479.5672294235493</v>
+        <v>1896.455741857633</v>
       </c>
       <c r="N40" t="n">
-        <v>662.7568634547586</v>
+        <v>2079.645375888842</v>
       </c>
       <c r="O40" t="n">
-        <v>825.4616304964666</v>
+        <v>2242.350142930551</v>
       </c>
       <c r="P40" t="n">
-        <v>945.3377962730451</v>
+        <v>2362.226308707129</v>
       </c>
       <c r="Q40" t="n">
-        <v>948.7599926430961</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R40" t="n">
-        <v>824.8590032756731</v>
+        <v>2241.747515709757</v>
       </c>
       <c r="S40" t="n">
-        <v>622.0429194582225</v>
+        <v>2038.931431892307</v>
       </c>
       <c r="T40" t="n">
-        <v>386.3238676264566</v>
+        <v>1803.212380060541</v>
       </c>
       <c r="U40" t="n">
-        <v>386.3238676264566</v>
+        <v>1783.152729110954</v>
       </c>
       <c r="V40" t="n">
-        <v>386.3238676264566</v>
+        <v>1783.152729110954</v>
       </c>
       <c r="W40" t="n">
-        <v>386.3238676264566</v>
+        <v>1783.152729110954</v>
       </c>
       <c r="X40" t="n">
-        <v>386.3238676264566</v>
+        <v>1783.152729110954</v>
       </c>
       <c r="Y40" t="n">
-        <v>386.3238676264566</v>
+        <v>1783.152729110954</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1177.734277544119</v>
+        <v>1673.129190464088</v>
       </c>
       <c r="C41" t="n">
-        <v>784.5587760470498</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="D41" t="n">
-        <v>784.5587760470498</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E41" t="n">
-        <v>784.5587760470498</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F41" t="n">
-        <v>784.5587760470498</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G41" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H41" t="n">
         <v>47.31297010154361</v>
@@ -7424,7 +7426,7 @@
         <v>1973.427801529577</v>
       </c>
       <c r="O41" t="n">
-        <v>2017.461012945658</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P41" t="n">
         <v>2365.64850507718</v>
@@ -7442,19 +7444,19 @@
         <v>2365.64850507718</v>
       </c>
       <c r="U41" t="n">
-        <v>2109.895775511779</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V41" t="n">
-        <v>1767.788966215297</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W41" t="n">
-        <v>1767.788966215297</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X41" t="n">
-        <v>1767.788966215297</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Y41" t="n">
-        <v>1578.229023255516</v>
+        <v>2073.623936175485</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C42" t="n">
-        <v>696.0247228016675</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D42" t="n">
-        <v>565.9357554231478</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E42" t="n">
-        <v>429.4892645340356</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F42" t="n">
-        <v>305.0574584171674</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G42" t="n">
-        <v>184.9976404890318</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H42" t="n">
-        <v>96.70022408963275</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I42" t="n">
-        <v>47.31297010154434</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J42" t="n">
-        <v>47.31297010154434</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K42" t="n">
-        <v>194.5661265746817</v>
+        <v>160.427952321271</v>
       </c>
       <c r="L42" t="n">
-        <v>678.132212472995</v>
+        <v>643.9940382195842</v>
       </c>
       <c r="M42" t="n">
-        <v>1263.630217479597</v>
+        <v>1229.492043226187</v>
       </c>
       <c r="N42" t="n">
-        <v>1849.128222486199</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O42" t="n">
-        <v>2365.64850507718</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P42" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q42" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R42" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S42" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T42" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U42" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V42" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W42" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X42" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y42" t="n">
-        <v>998.4752876825366</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>398.9308582748658</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C43" t="n">
-        <v>398.9308582748658</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D43" t="n">
-        <v>398.9308582748658</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9308582748658</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F43" t="n">
-        <v>371.0455750406041</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G43" t="n">
-        <v>202.7915211400496</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H43" t="n">
         <v>47.31297010154361</v>
@@ -7591,28 +7593,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R43" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S43" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T43" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U43" t="n">
-        <v>622.0429194582225</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V43" t="n">
-        <v>622.0429194582225</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="W43" t="n">
-        <v>622.0429194582225</v>
+        <v>114.011453636999</v>
       </c>
       <c r="X43" t="n">
-        <v>622.0429194582225</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y43" t="n">
-        <v>398.9308582748658</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>494.9269798400162</v>
+        <v>825.9296003819453</v>
       </c>
       <c r="C44" t="n">
-        <v>494.9269798400162</v>
+        <v>432.7540988848759</v>
       </c>
       <c r="D44" t="n">
-        <v>494.9269798400162</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E44" t="n">
-        <v>494.9269798400162</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F44" t="n">
-        <v>494.9269798400162</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G44" t="n">
-        <v>494.9269798400162</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H44" t="n">
-        <v>170.8439294065068</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I44" t="n">
-        <v>32.50681249897168</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J44" t="n">
-        <v>32.50681249897168</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K44" t="n">
-        <v>32.50681249897168</v>
+        <v>358.4764287842802</v>
       </c>
       <c r="L44" t="n">
-        <v>434.7786171737463</v>
+        <v>851.7967205028091</v>
       </c>
       <c r="M44" t="n">
-        <v>837.050421848521</v>
+        <v>1397.79762054739</v>
       </c>
       <c r="N44" t="n">
-        <v>1239.322226523296</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O44" t="n">
-        <v>1625.340624948584</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P44" t="n">
-        <v>1625.340624948584</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q44" t="n">
-        <v>1625.340624948584</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R44" t="n">
-        <v>1587.347711234106</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S44" t="n">
-        <v>1420.834156175157</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T44" t="n">
-        <v>1420.834156175157</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U44" t="n">
-        <v>1165.081426609755</v>
+        <v>2109.895775511779</v>
       </c>
       <c r="V44" t="n">
-        <v>822.9746173132738</v>
+        <v>2109.895775511779</v>
       </c>
       <c r="W44" t="n">
-        <v>494.9269798400162</v>
+        <v>2012.367660239684</v>
       </c>
       <c r="X44" t="n">
-        <v>494.9269798400162</v>
+        <v>1622.915055172741</v>
       </c>
       <c r="Y44" t="n">
-        <v>494.9269798400162</v>
+        <v>1226.424346093342</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>319.6075338279917</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C45" t="n">
-        <v>168.953303388084</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D45" t="n">
-        <v>168.953303388084</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E45" t="n">
-        <v>32.50681249897168</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F45" t="n">
-        <v>32.50681249897168</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G45" t="n">
-        <v>32.50681249897168</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H45" t="n">
-        <v>32.50681249897168</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I45" t="n">
-        <v>32.50681249897168</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J45" t="n">
-        <v>145.6217947186991</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K45" t="n">
-        <v>465.3609407809255</v>
+        <v>194.5661265746808</v>
       </c>
       <c r="L45" t="n">
-        <v>465.3609407809255</v>
+        <v>678.1322124729941</v>
       </c>
       <c r="M45" t="n">
-        <v>586.4319240441446</v>
+        <v>1263.630217479596</v>
       </c>
       <c r="N45" t="n">
-        <v>988.7037287189191</v>
+        <v>1849.128222486198</v>
       </c>
       <c r="O45" t="n">
-        <v>1390.975533393694</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P45" t="n">
-        <v>1390.975533393694</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q45" t="n">
-        <v>1625.340624948584</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R45" t="n">
-        <v>1625.340624948584</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S45" t="n">
-        <v>1625.340624948584</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T45" t="n">
-        <v>1502.745553660438</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U45" t="n">
-        <v>1292.68241033908</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V45" t="n">
-        <v>1070.142408710147</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W45" t="n">
-        <v>840.0251628434341</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X45" t="n">
-        <v>650.7180851934459</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y45" t="n">
-        <v>471.4038682689531</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>671.2297904582922</v>
+        <v>379.9907988161747</v>
       </c>
       <c r="C46" t="n">
-        <v>501.0246725242815</v>
+        <v>358.5048953398264</v>
       </c>
       <c r="D46" t="n">
-        <v>345.3915594267962</v>
+        <v>202.8717822423411</v>
       </c>
       <c r="E46" t="n">
-        <v>189.8327472859987</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F46" t="n">
-        <v>32.50681249897168</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G46" t="n">
-        <v>32.50681249897168</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H46" t="n">
-        <v>32.50681249897168</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I46" t="n">
-        <v>32.50681249897168</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J46" t="n">
-        <v>32.50681249897168</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K46" t="n">
-        <v>114.3418536089136</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L46" t="n">
-        <v>278.4694934827133</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M46" t="n">
-        <v>464.7610718209773</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N46" t="n">
-        <v>647.9507058521865</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O46" t="n">
-        <v>810.6554728938945</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P46" t="n">
-        <v>930.5316386704731</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q46" t="n">
-        <v>933.953835040524</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R46" t="n">
-        <v>810.052845673101</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S46" t="n">
-        <v>810.052845673101</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T46" t="n">
-        <v>810.052845673101</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U46" t="n">
-        <v>810.052845673101</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V46" t="n">
-        <v>810.052845673101</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="W46" t="n">
-        <v>810.052845673101</v>
+        <v>379.9907988161747</v>
       </c>
       <c r="X46" t="n">
-        <v>810.052845673101</v>
+        <v>379.9907988161747</v>
       </c>
       <c r="Y46" t="n">
-        <v>810.052845673101</v>
+        <v>379.9907988161747</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7981,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>270.6522400901343</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
@@ -7991,13 +7993,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600596</v>
       </c>
       <c r="P2" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8064,10 +8066,10 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>351.5705978518764</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N3" t="n">
-        <v>676.7842391234617</v>
+        <v>344.5555886567312</v>
       </c>
       <c r="O3" t="n">
         <v>614.4252180716981</v>
@@ -8225,13 +8227,13 @@
         <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>647.0581217063165</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>466.8029043711341</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
         <v>331.2113854294513</v>
@@ -8298,13 +8300,13 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>422.8212561536984</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N6" t="n">
-        <v>676.7842391234617</v>
+        <v>667.5244230630205</v>
       </c>
       <c r="O6" t="n">
         <v>614.4252180716981</v>
@@ -8313,7 +8315,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8450,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>271.1401458256686</v>
       </c>
       <c r="L8" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8468,10 +8470,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>464.6079711628815</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,7 +8531,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
         <v>412.5657697396227</v>
@@ -8541,7 +8543,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>447.5171231095472</v>
+        <v>569.9919810238536</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8550,7 +8552,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8687,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K11" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L11" t="n">
-        <v>427.440794103012</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M11" t="n">
         <v>701.2411122488187</v>
@@ -8702,13 +8704,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O11" t="n">
-        <v>594.0482827698827</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P11" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q11" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8766,19 +8768,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
         <v>683.7992483186069</v>
       </c>
       <c r="N12" t="n">
-        <v>415.8062469585533</v>
+        <v>467.0304465710365</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -8933,13 +8935,13 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M14" t="n">
-        <v>652.9391957389953</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N14" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O14" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600596</v>
       </c>
       <c r="P14" t="n">
         <v>150.3014472409252</v>
@@ -9003,19 +9005,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>234.9862648617782</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M15" t="n">
-        <v>92.38712204931191</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N15" t="n">
-        <v>676.7842391234617</v>
+        <v>581.2880043687418</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9024,7 +9026,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9167,22 +9169,22 @@
         <v>505.666843611017</v>
       </c>
       <c r="L17" t="n">
-        <v>470.2375325962349</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M17" t="n">
-        <v>149.7250515977273</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N17" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O17" t="n">
-        <v>594.0482827698827</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P17" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q17" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9243,7 +9245,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
@@ -9252,16 +9254,16 @@
         <v>683.7992483186069</v>
       </c>
       <c r="N18" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>385.1581020577837</v>
       </c>
       <c r="P18" t="n">
-        <v>235.8239269133934</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9413,13 +9415,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O20" t="n">
-        <v>594.0482827698827</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P20" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q20" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9477,25 +9479,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>385.1581020577837</v>
       </c>
       <c r="P21" t="n">
-        <v>259.5940292362812</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
         <v>327.7205688679246</v>
@@ -9635,16 +9637,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K23" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L23" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M23" t="n">
-        <v>701.2411122488187</v>
+        <v>477.1304116531281</v>
       </c>
       <c r="N23" t="n">
         <v>682.2612020826953</v>
@@ -9714,28 +9716,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>124.0799396297069</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>92.38712204931191</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N24" t="n">
-        <v>447.5171231095475</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9875,10 +9877,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K26" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L26" t="n">
-        <v>651.5514946987026</v>
+        <v>614.1534811140714</v>
       </c>
       <c r="M26" t="n">
         <v>701.2411122488187</v>
@@ -9887,10 +9889,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O26" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P26" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q26" t="n">
         <v>144.4986984183922</v>
@@ -9954,16 +9956,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>560.2818744604613</v>
       </c>
       <c r="N27" t="n">
-        <v>333.2595653118428</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -10115,7 +10117,7 @@
         <v>143.0584031792374</v>
       </c>
       <c r="L29" t="n">
-        <v>427.440794103012</v>
+        <v>614.1534811140714</v>
       </c>
       <c r="M29" t="n">
         <v>701.2411122488187</v>
@@ -10130,7 +10132,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q29" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R29" t="n">
         <v>102.5176150018526</v>
@@ -10191,25 +10193,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>676.7842391234617</v>
+        <v>447.5171231095472</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>235.8239269133925</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10349,10 +10351,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K32" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L32" t="n">
-        <v>614.1534811140714</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M32" t="n">
         <v>701.2411122488187</v>
@@ -10361,10 +10363,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O32" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600596</v>
       </c>
       <c r="P32" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q32" t="n">
         <v>144.4986984183922</v>
@@ -10428,7 +10430,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
-        <v>238.3374974274115</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
@@ -10443,7 +10445,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>87.08336481931465</v>
+        <v>235.8239269133925</v>
       </c>
       <c r="Q33" t="n">
         <v>90.98815315591399</v>
@@ -10662,28 +10664,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
-        <v>557.9550992680668</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
         <v>683.7992483186069</v>
       </c>
       <c r="N36" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>496.801919078302</v>
+        <v>235.8239269133925</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10826,7 +10828,7 @@
         <v>505.666843611017</v>
       </c>
       <c r="L38" t="n">
-        <v>651.5514946987026</v>
+        <v>603.2495781888792</v>
       </c>
       <c r="M38" t="n">
         <v>701.2411122488187</v>
@@ -10835,7 +10837,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O38" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P38" t="n">
         <v>150.3014472409252</v>
@@ -10899,19 +10901,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>454.5321323046934</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>301.5486891608477</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -10920,7 +10922,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11072,10 +11074,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O41" t="n">
-        <v>194.0418287534719</v>
+        <v>545.7463662600596</v>
       </c>
       <c r="P41" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q41" t="n">
         <v>144.4986984183922</v>
@@ -11136,10 +11138,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>238.3374974274115</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
@@ -11148,13 +11150,13 @@
         <v>683.7992483186069</v>
       </c>
       <c r="N42" t="n">
-        <v>676.7842391234617</v>
+        <v>301.5486891608477</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
         <v>90.98815315591399</v>
@@ -11297,19 +11299,19 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K44" t="n">
-        <v>143.0584031792374</v>
+        <v>457.3649271011935</v>
       </c>
       <c r="L44" t="n">
-        <v>559.5833259676377</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M44" t="n">
-        <v>556.0602078348734</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N44" t="n">
-        <v>555.4536475749302</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O44" t="n">
-        <v>539.4814115910547</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P44" t="n">
         <v>150.3014472409252</v>
@@ -11373,28 +11375,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>238.3374974274113</v>
       </c>
       <c r="L45" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>214.681044537412</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N45" t="n">
-        <v>491.7072690913127</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O45" t="n">
-        <v>499.0227151260349</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -22544,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>213.488090419519</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
@@ -22559,13 +22561,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>283.4243770262273</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,22 +22594,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
@@ -22705,10 +22707,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>53.73337658004151</v>
+        <v>25.5904425010043</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22717,7 +22719,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -22726,7 +22728,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22784,19 +22786,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.155812730528339</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -22835,7 +22837,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>18.53909549158942</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
@@ -22850,7 +22852,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -23030,16 +23032,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>128.0348527349124</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,7 +23068,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
@@ -23075,13 +23077,13 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>26.10323880498248</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23179,22 +23181,22 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>60.39847475326034</v>
       </c>
       <c r="I10" t="n">
         <v>131.7634811092929</v>
@@ -23230,16 +23232,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>167.3303626133475</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
@@ -23261,22 +23263,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>206.3046270322888</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
         <v>164.8484195083599</v>
@@ -23318,13 +23320,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>17.54100829227411</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>153.923765528121</v>
+        <v>142.1290630551114</v>
       </c>
       <c r="I13" t="n">
         <v>131.7634811092929</v>
@@ -23473,16 +23475,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
-        <v>104.004557025751</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
         <v>389.2437464820987</v>
@@ -23501,7 +23503,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>45.89575052501306</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>136.9537457384598</v>
@@ -23546,10 +23548,10 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T14" t="n">
-        <v>221.2655964161775</v>
+        <v>59.15089186955521</v>
       </c>
       <c r="U14" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,7 +23560,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
         <v>392.5258019886049</v>
@@ -23650,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>154.0767819665104</v>
@@ -23665,7 +23667,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>166.5715133615489</v>
+        <v>78.61842587084078</v>
       </c>
       <c r="H16" t="n">
         <v>153.923765528121</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
-        <v>210.2831670182382</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23729,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
         <v>320.8422199291742</v>
@@ -23783,19 +23785,19 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
-        <v>221.2655964161775</v>
+        <v>59.85708420411831</v>
       </c>
       <c r="U17" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>92.48975953791694</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23890,7 +23892,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>154.0767819665104</v>
@@ -23902,7 +23904,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
-        <v>166.5715133615489</v>
+        <v>157.7538736147236</v>
       </c>
       <c r="H19" t="n">
         <v>153.923765528121</v>
@@ -23938,25 +23940,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>105.6268993443525</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -23975,7 +23977,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23984,7 +23986,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I20" t="n">
         <v>136.9537457384598</v>
@@ -24017,7 +24019,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>9.693333819376818</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24026,7 +24028,7 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>367.2890446813954</v>
@@ -24035,7 +24037,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>64.68659886749612</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -24127,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>154.0032240193895</v>
@@ -24148,7 +24150,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J22" t="n">
-        <v>3.359899776662996</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24178,7 +24180,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U22" t="n">
         <v>282.5844038405181</v>
@@ -24190,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>178.1177257692653</v>
       </c>
     </row>
     <row r="23">
@@ -24209,13 +24211,13 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>71.16540712386751</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24224,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>115.6055293195257</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,25 +24256,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24367,7 +24369,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>23.65888910788232</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>90.4630477128952</v>
       </c>
       <c r="J25" t="n">
         <v>30.07448747215907</v>
@@ -24430,7 +24432,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24443,22 +24445,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>92.489759537917</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>384.123860639107</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>136.9537457384598</v>
@@ -24503,13 +24505,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>57.70828232767641</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
         <v>168.5030667546707</v>
@@ -24652,7 +24654,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="X28" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -24677,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>17.5410082922744</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>412.725494085322</v>
@@ -24740,7 +24742,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>26.85495144479631</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24835,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
         <v>154.0032240193895</v>
@@ -24889,22 +24891,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T31" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133472</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>66.12369447580224</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -24920,19 +24922,19 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>79.94842983532311</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>320.8422199291742</v>
+        <v>159.4156519890162</v>
       </c>
       <c r="I32" t="n">
         <v>136.9537457384598</v>
@@ -24965,7 +24967,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>221.2655964161775</v>
@@ -24980,7 +24982,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25075,10 +25077,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>60.39847475326057</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25090,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I34" t="n">
         <v>131.7634811092929</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>233.3618613134482</v>
+        <v>140.706624270431</v>
       </c>
       <c r="U34" t="n">
         <v>282.5844038405181</v>
@@ -25166,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>63.28164070993267</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>320.8422199291742</v>
@@ -25211,10 +25213,10 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>34.67833723205388</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
         <v>385.5580790162737</v>
@@ -25315,22 +25317,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>154.0767819665104</v>
+        <v>23.65888910788243</v>
       </c>
       <c r="E37" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>30.07448747215907</v>
@@ -25363,16 +25365,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
-        <v>167.3303626133475</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
         <v>231.7395189948467</v>
@@ -25391,13 +25393,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>88.51839801714203</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25406,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I38" t="n">
         <v>136.9537457384598</v>
@@ -25445,19 +25447,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
-        <v>195.860396982251</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25558,19 +25560,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>140.6271657791628</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25603,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5844038405181</v>
+        <v>262.7253494004268</v>
       </c>
       <c r="V40" t="n">
         <v>263.319551727384</v>
@@ -25634,16 +25636,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I41" t="n">
         <v>136.9537457384598</v>
@@ -25682,10 +25684,10 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
         <v>367.2890446813954</v>
@@ -25694,7 +25696,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>204.8614584584215</v>
+        <v>103.4214787759262</v>
       </c>
     </row>
     <row r="42">
@@ -25795,13 +25797,13 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>128.1462450372376</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I43" t="n">
         <v>131.7634811092929</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>165.7080202947459</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -25862,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>398.5576896346209</v>
@@ -25880,10 +25882,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,10 +25912,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T44" t="n">
         <v>221.2655964161775</v>
@@ -25922,16 +25924,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>42.52188358287037</v>
+        <v>270.7362105620214</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25947,22 +25949,22 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,13 +25991,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>53.84485310781623</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>45.9211138417275</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>147.2320223130858</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26032,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
         <v>166.5715133615489</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
         <v>200.7879229792761</v>
@@ -26077,13 +26079,13 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>231.7395189948467</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>644463.5466854208</v>
+        <v>644463.5466854206</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>644463.546685421</v>
+        <v>644463.5466854208</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>644463.546685421</v>
+        <v>644463.5466854207</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>644463.546685421</v>
+        <v>644463.5466854207</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>644463.5466854211</v>
+        <v>644463.5466854208</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>726079.3744763416</v>
+        <v>644463.5466854206</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>726079.3744763415</v>
+        <v>644463.5466854209</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>644463.5466854209</v>
+        <v>644463.546685421</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>644463.5466854207</v>
+        <v>644463.5466854211</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>644463.5466854209</v>
+        <v>644463.5466854206</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>644463.5466854208</v>
+        <v>644463.5466854206</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>644463.5466854207</v>
+        <v>644463.546685421</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>519373.9613777281</v>
+        <v>644463.5466854207</v>
       </c>
     </row>
   </sheetData>
@@ -26314,28 +26316,28 @@
         <v>203273.2178484351</v>
       </c>
       <c r="C2" t="n">
+        <v>203273.217848435</v>
+      </c>
+      <c r="D2" t="n">
+        <v>203273.2178484352</v>
+      </c>
+      <c r="E2" t="n">
+        <v>203273.2178484352</v>
+      </c>
+      <c r="F2" t="n">
         <v>203273.2178484351</v>
       </c>
-      <c r="D2" t="n">
-        <v>203273.217848435</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
+        <v>203273.2178484352</v>
+      </c>
+      <c r="H2" t="n">
         <v>203273.2178484351</v>
       </c>
-      <c r="F2" t="n">
-        <v>203273.217848435</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>203273.2178484351</v>
       </c>
-      <c r="H2" t="n">
-        <v>229000.8148323084</v>
-      </c>
-      <c r="I2" t="n">
-        <v>229000.8148323084</v>
-      </c>
       <c r="J2" t="n">
-        <v>203273.2178484352</v>
+        <v>203273.2178484351</v>
       </c>
       <c r="K2" t="n">
         <v>203273.2178484351</v>
@@ -26353,7 +26355,7 @@
         <v>203273.2178484351</v>
       </c>
       <c r="P2" t="n">
-        <v>163841.4737274232</v>
+        <v>203273.2178484351</v>
       </c>
     </row>
     <row r="3">
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>49935.4322074041</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>106315.1556185119</v>
+        <v>154739.4343656034</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>57691.12693712541</v>
+        <v>57691.12693712542</v>
       </c>
       <c r="C4" t="n">
-        <v>57691.12693712541</v>
+        <v>57691.12693712542</v>
       </c>
       <c r="D4" t="n">
         <v>57691.12693712541</v>
       </c>
       <c r="E4" t="n">
-        <v>57691.12693712542</v>
+        <v>57691.1269371254</v>
       </c>
       <c r="F4" t="n">
-        <v>57691.12693712542</v>
+        <v>57691.12693712541</v>
       </c>
       <c r="G4" t="n">
-        <v>57691.12693712542</v>
+        <v>57691.1269371254</v>
       </c>
       <c r="H4" t="n">
-        <v>65070.2855682401</v>
+        <v>57691.1269371254</v>
       </c>
       <c r="I4" t="n">
-        <v>65070.2855682401</v>
+        <v>57691.12693712541</v>
       </c>
       <c r="J4" t="n">
-        <v>57691.12693712542</v>
+        <v>57691.12693712541</v>
       </c>
       <c r="K4" t="n">
-        <v>57691.12693712542</v>
+        <v>57691.12693712541</v>
       </c>
       <c r="L4" t="n">
-        <v>57691.12693712542</v>
+        <v>57691.12693712541</v>
       </c>
       <c r="M4" t="n">
         <v>57691.12693712541</v>
       </c>
       <c r="N4" t="n">
-        <v>57691.12693712542</v>
+        <v>57691.12693712541</v>
       </c>
       <c r="O4" t="n">
-        <v>57691.12693712542</v>
+        <v>57691.12693712541</v>
       </c>
       <c r="P4" t="n">
-        <v>46381.36119596973</v>
+        <v>57691.1269371254</v>
       </c>
     </row>
     <row r="5">
@@ -26485,10 +26487,10 @@
         <v>35957.85727717314</v>
       </c>
       <c r="H5" t="n">
-        <v>47210.5370551278</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="I5" t="n">
-        <v>47210.5370551278</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="J5" t="n">
         <v>35957.85727717314</v>
@@ -26509,7 +26511,7 @@
         <v>35957.85727717314</v>
       </c>
       <c r="P5" t="n">
-        <v>24705.17749921848</v>
+        <v>35957.85727717314</v>
       </c>
     </row>
     <row r="6">
@@ -26522,10 +26524,10 @@
         <v>-122199.1723576084</v>
       </c>
       <c r="C6" t="n">
-        <v>75996.63363413652</v>
+        <v>75996.63363413645</v>
       </c>
       <c r="D6" t="n">
-        <v>75996.63363413644</v>
+        <v>75996.63363413661</v>
       </c>
       <c r="E6" t="n">
         <v>109624.2336341366</v>
@@ -26534,16 +26536,16 @@
         <v>109624.2336341365</v>
       </c>
       <c r="G6" t="n">
+        <v>109624.2336341366</v>
+      </c>
+      <c r="H6" t="n">
+        <v>109624.2336341366</v>
+      </c>
+      <c r="I6" t="n">
         <v>109624.2336341365</v>
       </c>
-      <c r="H6" t="n">
-        <v>66784.56000153639</v>
-      </c>
-      <c r="I6" t="n">
-        <v>116719.9922089405</v>
-      </c>
       <c r="J6" t="n">
-        <v>3309.078015624749</v>
+        <v>-45115.2007314669</v>
       </c>
       <c r="K6" t="n">
         <v>109624.2336341366</v>
@@ -26552,16 +26554,16 @@
         <v>109624.2336341366</v>
       </c>
       <c r="M6" t="n">
-        <v>109624.2336341366</v>
+        <v>109624.2336341365</v>
       </c>
       <c r="N6" t="n">
         <v>109624.2336341366</v>
       </c>
       <c r="O6" t="n">
-        <v>109624.2336341365</v>
+        <v>109624.2336341366</v>
       </c>
       <c r="P6" t="n">
-        <v>92754.93503223499</v>
+        <v>109624.2336341366</v>
       </c>
     </row>
   </sheetData>
@@ -26805,10 +26807,10 @@
         <v>591.4121262692951</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014441</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="J4" t="n">
         <v>591.4121262692951</v>
@@ -26829,7 +26831,7 @@
         <v>591.4121262692951</v>
       </c>
       <c r="P4" t="n">
-        <v>406.3351562371461</v>
+        <v>591.4121262692951</v>
       </c>
     </row>
   </sheetData>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>185.076970032149</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>406.3351562371461</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>185.076970032149</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,7 +34701,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>127.5938369108969</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
@@ -34711,13 +34713,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359632</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34784,10 +34786,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>591.4121262692951</v>
+      </c>
+      <c r="N3" t="n">
         <v>259.1834758025645</v>
-      </c>
-      <c r="N3" t="n">
-        <v>591.4121262692951</v>
       </c>
       <c r="O3" t="n">
         <v>521.7376591828091</v>
@@ -34945,13 +34947,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>497.9396303685323</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>316.5014571302089</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
         <v>186.7126870110591</v>
@@ -35018,13 +35020,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>330.4341341043865</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N6" t="n">
-        <v>591.4121262692951</v>
+        <v>582.1523102088539</v>
       </c>
       <c r="O6" t="n">
         <v>521.7376591828091</v>
@@ -35033,7 +35035,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>128.0817426464313</v>
       </c>
       <c r="L8" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35188,10 +35190,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>314.3065239219563</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
         <v>322.9688344062893</v>
@@ -35261,7 +35263,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>362.1450102553806</v>
+        <v>484.6198681696869</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35270,7 +35272,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L11" t="n">
-        <v>274.1926243725203</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M11" t="n">
         <v>551.5160606510915</v>
@@ -35422,13 +35424,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O11" t="n">
-        <v>444.4844453457863</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P11" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="N12" t="n">
-        <v>330.4341341043866</v>
+        <v>381.6583337168698</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35653,13 +35655,13 @@
         <v>498.303324968211</v>
       </c>
       <c r="M14" t="n">
-        <v>503.2141441412681</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N14" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359632</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35723,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>144.92591800486</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N15" t="n">
-        <v>591.4121262692951</v>
+        <v>495.9158915145752</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35744,7 +35746,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35887,22 +35889,22 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L17" t="n">
-        <v>316.9893628657432</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N17" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>444.4844453457863</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P17" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
@@ -35972,16 +35974,16 @@
         <v>591.4121262692951</v>
       </c>
       <c r="N18" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>292.4705431688948</v>
       </c>
       <c r="P18" t="n">
-        <v>148.7405620940788</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36133,13 +36135,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
-        <v>444.4844453457863</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P20" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>292.4705431688948</v>
       </c>
       <c r="P21" t="n">
-        <v>172.5106644169666</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
         <v>236.7324157120106</v>
@@ -36355,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M23" t="n">
-        <v>551.5160606510915</v>
+        <v>327.4053600554008</v>
       </c>
       <c r="N23" t="n">
         <v>533.1427107449111</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>34.48300429637357</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N24" t="n">
-        <v>362.1450102553808</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36595,10 +36597,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>498.303324968211</v>
+        <v>460.9053113835797</v>
       </c>
       <c r="M26" t="n">
         <v>551.5160606510915</v>
@@ -36607,10 +36609,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36674,16 +36676,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>467.8947524111493</v>
       </c>
       <c r="N27" t="n">
-        <v>247.8874524576762</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36835,7 +36837,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>274.1926243725203</v>
+        <v>460.9053113835797</v>
       </c>
       <c r="M29" t="n">
         <v>551.5160606510915</v>
@@ -36850,7 +36852,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36911,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>591.4121262692951</v>
+        <v>362.1450102553806</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>148.7405620940779</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,10 +37071,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>460.9053113835797</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
@@ -37081,10 +37083,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359632</v>
       </c>
       <c r="P32" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37148,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>148.7405620940782</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
@@ -37163,7 +37165,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>148.7405620940779</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>467.8947524111485</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>409.7185542589873</v>
+        <v>148.7405620940779</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37546,7 +37548,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L38" t="n">
-        <v>498.303324968211</v>
+        <v>450.0014084583875</v>
       </c>
       <c r="M38" t="n">
         <v>551.5160606510915</v>
@@ -37555,7 +37557,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O38" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -37619,19 +37621,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>362.1450102553815</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>216.176576306681</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37640,7 +37642,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37792,10 +37794,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O41" t="n">
-        <v>44.47799132937547</v>
+        <v>396.1825288359632</v>
       </c>
       <c r="P41" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37856,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>148.7405620940782</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
@@ -37868,13 +37870,13 @@
         <v>591.4121262692951</v>
       </c>
       <c r="N42" t="n">
-        <v>591.4121262692951</v>
+        <v>216.176576306681</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38017,19 +38019,19 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>314.3065239219562</v>
       </c>
       <c r="L44" t="n">
-        <v>406.3351562371461</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M44" t="n">
-        <v>406.3351562371461</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N44" t="n">
-        <v>406.3351562371461</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O44" t="n">
-        <v>389.9175741669583</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>148.740562094078</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>122.2939224881001</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N45" t="n">
-        <v>406.3351562371461</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O45" t="n">
-        <v>406.3351562371461</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_5_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_5_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>559002.4659598408</v>
+        <v>553294.3101519544</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3854815.050462389</v>
+        <v>3854815.050462388</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10110391.89330058</v>
+        <v>10110391.89330059</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7452011.213875981</v>
+        <v>7452011.213875985</v>
       </c>
     </row>
     <row r="11">
@@ -667,19 +667,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>127.4992508286496</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>125.6067509306495</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -740,7 +740,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
-        <v>149.1476881355094</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
         <v>128.7880777047345</v>
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>68.90841021447076</v>
       </c>
       <c r="D4" t="n">
-        <v>128.4863394655061</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>202.7265009245881</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>112.5616171933669</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820825</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1059,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1107,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>95.98918911403649</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>63.25587541179895</v>
       </c>
       <c r="W8" t="n">
-        <v>341.1858058764129</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I9" t="n">
-        <v>48.89338144820752</v>
+        <v>48.89338144820825</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1293,22 +1293,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>93.52529077486061</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1344,19 +1344,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>113.1667354347866</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>389.2437464820987</v>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>23.04391114827117</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>349.7480363891213</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>11.79470247300951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>175.6983641828944</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>412.725494085322</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>162.1147045466223</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U14" t="n">
         <v>253.1952022697474</v>
@@ -1669,7 +1669,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>339.4067977650657</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>87.95308749070813</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>113.1667354347866</v>
       </c>
       <c r="X16" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>127.9816851410822</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
-        <v>161.4085122120592</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
         <v>253.1952022697474</v>
@@ -1906,13 +1906,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>8.817639746825281</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,19 +2055,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U19" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>175.6983641828944</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>56.44588961684117</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>155.1550856889831</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>113.1667354347866</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>42.76321480225778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
         <v>398.5576896346209</v>
@@ -2332,13 +2332,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I23" t="n">
-        <v>21.34821641893407</v>
+        <v>19.59187330742451</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>385.5580790162737</v>
@@ -2484,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>41.30043339639768</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2532,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>206.6890709537359</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,25 +2557,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>28.60163344621502</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>409.0311279568768</v>
+        <v>337.3391938383588</v>
       </c>
       <c r="H26" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -2769,16 +2769,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>146.8340739597078</v>
       </c>
       <c r="W28" t="n">
-        <v>113.1667354347866</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>398.5576896346209</v>
@@ -2806,13 +2806,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>154.4821135129369</v>
       </c>
       <c r="W29" t="n">
-        <v>340.4340932365991</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>385.5580790162737</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>66.0314987001008</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>282.5844038405181</v>
@@ -3012,7 +3012,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>113.166735434787</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3031,25 +3031,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>409.0311279568768</v>
+        <v>376.7365386365254</v>
       </c>
       <c r="H32" t="n">
-        <v>161.426567940158</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3195,13 +3195,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>66.0314987001008</v>
       </c>
       <c r="G34" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>92.65523704301719</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>257.4502766466295</v>
       </c>
       <c r="F35" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3325,13 +3325,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>304.0074039714629</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>66.0314987001008</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>130.417892858628</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>300.7253484649567</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>409.0311279568768</v>
+        <v>350.4451591118365</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3559,10 +3559,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,13 +3678,13 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>19.85905444009132</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>175.2742684609744</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3742,19 +3742,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>409.0311279568768</v>
+        <v>179.6869036124163</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>289.1043232126787</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>381.5867174954989</v>
@@ -3994,10 +3994,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U44" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>96.55283411937401</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>72.87250780621707</v>
       </c>
     </row>
     <row r="45">
@@ -4137,13 +4137,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>21.27104444158488</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4194,13 +4194,13 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>66.0314987001008</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1022.049772216476</v>
+        <v>974.7039764460137</v>
       </c>
       <c r="C2" t="n">
-        <v>1022.049772216476</v>
+        <v>974.7039764460137</v>
       </c>
       <c r="D2" t="n">
-        <v>636.6086434331432</v>
+        <v>589.2628476626815</v>
       </c>
       <c r="E2" t="n">
-        <v>636.6086434331432</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="F2" t="n">
-        <v>636.6086434331432</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G2" t="n">
-        <v>509.7331374425881</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H2" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I2" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J2" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K2" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L2" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M2" t="n">
-        <v>1445.616517892115</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="N2" t="n">
-        <v>1973.427801529577</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O2" t="n">
-        <v>2365.64850507718</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P2" t="n">
         <v>2365.64850507718</v>
@@ -4366,16 +4366,16 @@
         <v>2161.142036303753</v>
       </c>
       <c r="V2" t="n">
-        <v>1819.035227007271</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="W2" t="n">
-        <v>1819.035227007271</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="X2" t="n">
-        <v>1819.035227007271</v>
+        <v>1771.689431236809</v>
       </c>
       <c r="Y2" t="n">
-        <v>1422.544517927872</v>
+        <v>1375.198722157411</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C3" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D3" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E3" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F3" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G3" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H3" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I3" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J3" t="n">
-        <v>47.31297010154361</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K3" t="n">
-        <v>367.0521161637701</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="L3" t="n">
-        <v>367.0521161637701</v>
+        <v>643.9940382195844</v>
       </c>
       <c r="M3" t="n">
-        <v>952.5501211703722</v>
+        <v>1229.492043226187</v>
       </c>
       <c r="N3" t="n">
-        <v>1209.141762214911</v>
+        <v>1614.763130931309</v>
       </c>
       <c r="O3" t="n">
-        <v>1725.662044805892</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="P3" t="n">
         <v>2131.28341352229</v>
@@ -4448,13 +4448,13 @@
         <v>1597.213828123731</v>
       </c>
       <c r="W3" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X3" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y3" t="n">
-        <v>998.4752876825366</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2365.64850507718</v>
+        <v>405.5706623673549</v>
       </c>
       <c r="C4" t="n">
-        <v>2195.443387143169</v>
+        <v>335.9662076052632</v>
       </c>
       <c r="D4" t="n">
-        <v>2065.65920586488</v>
+        <v>335.9662076052632</v>
       </c>
       <c r="E4" t="n">
-        <v>1910.100393724083</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="F4" t="n">
-        <v>1752.774458937056</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="G4" t="n">
-        <v>1752.774458937056</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="H4" t="n">
-        <v>1597.29590789855</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J4" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K4" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L4" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M4" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N4" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O4" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P4" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q4" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R4" t="n">
-        <v>2365.64850507718</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S4" t="n">
-        <v>2365.64850507718</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T4" t="n">
-        <v>2365.64850507718</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="U4" t="n">
-        <v>2365.64850507718</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="V4" t="n">
-        <v>2365.64850507718</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="W4" t="n">
-        <v>2365.64850507718</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="X4" t="n">
-        <v>2365.64850507718</v>
+        <v>590.7786810586562</v>
       </c>
       <c r="Y4" t="n">
-        <v>2365.64850507718</v>
+        <v>590.7786810586562</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1722.386602293135</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="C5" t="n">
-        <v>1329.211100796066</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="D5" t="n">
-        <v>1329.211100796066</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E5" t="n">
-        <v>926.6275759126104</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F5" t="n">
-        <v>509.7331374425881</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G5" t="n">
-        <v>509.7331374425881</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H5" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I5" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J5" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K5" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L5" t="n">
-        <v>899.6156178475343</v>
+        <v>666.9511603618604</v>
       </c>
       <c r="M5" t="n">
-        <v>899.6156178475343</v>
+        <v>1212.952060406441</v>
       </c>
       <c r="N5" t="n">
-        <v>1392.575851912381</v>
+        <v>1740.763344043903</v>
       </c>
       <c r="O5" t="n">
-        <v>1832.61545280471</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="P5" t="n">
         <v>2180.802944936232</v>
@@ -4594,25 +4594,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S5" t="n">
-        <v>2327.655591362702</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T5" t="n">
-        <v>2122.881348004532</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="U5" t="n">
-        <v>2122.881348004532</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="V5" t="n">
-        <v>2122.881348004532</v>
+        <v>2047.44343307813</v>
       </c>
       <c r="W5" t="n">
-        <v>2122.881348004532</v>
+        <v>1676.444398046417</v>
       </c>
       <c r="X5" t="n">
-        <v>2122.881348004532</v>
+        <v>1676.444398046417</v>
       </c>
       <c r="Y5" t="n">
-        <v>2122.881348004532</v>
+        <v>1279.953688967018</v>
       </c>
     </row>
     <row r="6">
@@ -4622,43 +4622,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C6" t="n">
-        <v>696.0247228016675</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D6" t="n">
-        <v>565.9357554231478</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E6" t="n">
-        <v>429.4892645340356</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F6" t="n">
-        <v>305.0574584171674</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G6" t="n">
-        <v>184.9976404890318</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H6" t="n">
-        <v>96.70022408963275</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I6" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J6" t="n">
-        <v>47.31297010154361</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K6" t="n">
-        <v>47.31297010154361</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L6" t="n">
-        <v>47.31297010154361</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M6" t="n">
-        <v>632.8109751081457</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N6" t="n">
-        <v>1209.141762214911</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="O6" t="n">
         <v>1725.662044805892</v>
@@ -4685,13 +4685,13 @@
         <v>1597.213828123731</v>
       </c>
       <c r="W6" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X6" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y6" t="n">
-        <v>998.4752876825366</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C7" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D7" t="n">
-        <v>847.4030175052487</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E7" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F7" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G7" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H7" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I7" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J7" t="n">
         <v>47.31297010154361</v>
@@ -4755,22 +4755,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T7" t="n">
-        <v>948.7599926430961</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U7" t="n">
-        <v>948.7599926430961</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V7" t="n">
-        <v>948.7599926430961</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="W7" t="n">
-        <v>948.7599926430961</v>
+        <v>144.2717469844088</v>
       </c>
       <c r="X7" t="n">
-        <v>948.7599926430961</v>
+        <v>144.2717469844088</v>
       </c>
       <c r="Y7" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>578.8255885061483</v>
+        <v>1655.986794363964</v>
       </c>
       <c r="C8" t="n">
-        <v>185.6500870090788</v>
+        <v>1262.811292866895</v>
       </c>
       <c r="D8" t="n">
-        <v>185.6500870090788</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="E8" t="n">
-        <v>185.6500870090788</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F8" t="n">
-        <v>185.6500870090788</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4807,10 +4807,10 @@
         <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>318.7636682303387</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L8" t="n">
-        <v>318.7636682303387</v>
+        <v>685.2830347289006</v>
       </c>
       <c r="M8" t="n">
         <v>864.7645682749193</v>
@@ -4831,25 +4831,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.64850507718</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U8" t="n">
-        <v>2109.895775511779</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="V8" t="n">
-        <v>2109.895775511779</v>
+        <v>1655.986794363964</v>
       </c>
       <c r="W8" t="n">
-        <v>1765.263648363887</v>
+        <v>1655.986794363964</v>
       </c>
       <c r="X8" t="n">
-        <v>1375.811043296944</v>
+        <v>1655.986794363964</v>
       </c>
       <c r="Y8" t="n">
-        <v>979.3203342175452</v>
+        <v>1655.986794363964</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415753</v>
       </c>
       <c r="C9" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016675</v>
       </c>
       <c r="D9" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231478</v>
       </c>
       <c r="E9" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340356</v>
       </c>
       <c r="F9" t="n">
-        <v>305.0574584171666</v>
+        <v>305.0574584171674</v>
       </c>
       <c r="G9" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890318</v>
       </c>
       <c r="H9" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963275</v>
       </c>
       <c r="I9" t="n">
         <v>47.31297010154361</v>
@@ -4892,43 +4892,43 @@
         <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>963.7331842818107</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N9" t="n">
-        <v>1443.506853769801</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O9" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R9" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S9" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T9" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U9" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V9" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W9" t="n">
-        <v>1367.096582257017</v>
+        <v>1367.096582257018</v>
       </c>
       <c r="X9" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y9" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825366</v>
       </c>
     </row>
     <row r="10">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>778.5548747090853</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>622.9217616116</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>467.3629494708025</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0370146837755</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>141.782960783221</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
         <v>47.31297010154361</v>
@@ -4992,22 +4992,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>161.6228038740554</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>161.6228038740554</v>
       </c>
       <c r="X10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>825.9296003819453</v>
+        <v>1150.012650815455</v>
       </c>
       <c r="C11" t="n">
-        <v>432.7540988848759</v>
+        <v>756.8371493183852</v>
       </c>
       <c r="D11" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="E11" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="F11" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="G11" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H11" t="n">
         <v>47.31297010154361</v>
@@ -5047,46 +5047,46 @@
         <v>550.9450990378335</v>
       </c>
       <c r="L11" t="n">
-        <v>1044.265390756362</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="M11" t="n">
-        <v>1590.266290800943</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N11" t="n">
-        <v>2118.077574438405</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O11" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P11" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q11" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R11" t="n">
-        <v>2365.64850507718</v>
+        <v>2342.371827149634</v>
       </c>
       <c r="S11" t="n">
-        <v>2365.64850507718</v>
+        <v>2342.371827149634</v>
       </c>
       <c r="T11" t="n">
-        <v>2365.64850507718</v>
+        <v>2118.87122470905</v>
       </c>
       <c r="U11" t="n">
-        <v>2365.64850507718</v>
+        <v>1863.118495143649</v>
       </c>
       <c r="V11" t="n">
-        <v>2365.64850507718</v>
+        <v>1521.011685847167</v>
       </c>
       <c r="W11" t="n">
-        <v>2012.367660239684</v>
+        <v>1150.012650815455</v>
       </c>
       <c r="X11" t="n">
-        <v>1622.915055172741</v>
+        <v>1150.012650815455</v>
       </c>
       <c r="Y11" t="n">
-        <v>1226.424346093342</v>
+        <v>1150.012650815455</v>
       </c>
     </row>
     <row r="12">
@@ -5126,19 +5126,19 @@
         <v>480.1670983834974</v>
       </c>
       <c r="L12" t="n">
-        <v>480.1670983834974</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M12" t="n">
-        <v>1065.6651033901</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="N12" t="n">
-        <v>1443.506853769801</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O12" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P12" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q12" t="n">
         <v>2365.648505077179</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>540.4399127684381</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C13" t="n">
-        <v>540.4399127684381</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D13" t="n">
-        <v>384.8067996709529</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E13" t="n">
-        <v>384.8067996709529</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F13" t="n">
-        <v>227.4808648839258</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G13" t="n">
-        <v>59.22681098337139</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H13" t="n">
         <v>47.31297010154361</v>
@@ -5226,25 +5226,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S13" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T13" t="n">
-        <v>948.7599926430961</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="U13" t="n">
-        <v>948.7599926430961</v>
+        <v>224.7860652357804</v>
       </c>
       <c r="V13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="W13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X13" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y13" t="n">
-        <v>725.6479314597394</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1604.036739400527</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="C14" t="n">
-        <v>1604.036739400527</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="D14" t="n">
-        <v>1604.036739400527</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="E14" t="n">
         <v>1201.453214517072</v>
@@ -5278,19 +5278,19 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J14" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K14" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L14" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M14" t="n">
-        <v>1445.616517892115</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N14" t="n">
-        <v>1973.427801529577</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O14" t="n">
         <v>2365.64850507718</v>
@@ -5308,22 +5308,22 @@
         <v>2365.64850507718</v>
       </c>
       <c r="T14" t="n">
-        <v>2201.89627826241</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="U14" t="n">
-        <v>1946.143548697009</v>
+        <v>1886.395173071196</v>
       </c>
       <c r="V14" t="n">
-        <v>1604.036739400527</v>
+        <v>1544.288363774714</v>
       </c>
       <c r="W14" t="n">
-        <v>1604.036739400527</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="X14" t="n">
-        <v>1604.036739400527</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="Y14" t="n">
-        <v>1604.036739400527</v>
+        <v>1201.453214517072</v>
       </c>
     </row>
     <row r="15">
@@ -5333,67 +5333,67 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C15" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D15" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E15" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F15" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G15" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H15" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I15" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J15" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K15" t="n">
-        <v>367.0521161637701</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L15" t="n">
-        <v>367.0521161637701</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M15" t="n">
-        <v>952.5501211703722</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N15" t="n">
-        <v>1443.506853769802</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O15" t="n">
-        <v>1960.027136360783</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P15" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q15" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R15" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S15" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T15" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U15" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V15" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W15" t="n">
         <v>1367.096582257017</v>
@@ -5402,7 +5402,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y15" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="16">
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>306.3595905514212</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C16" t="n">
-        <v>136.1544726174104</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D16" t="n">
-        <v>136.1544726174104</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E16" t="n">
-        <v>136.1544726174104</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F16" t="n">
-        <v>136.1544726174104</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G16" t="n">
         <v>47.31297010154361</v>
@@ -5466,22 +5466,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T16" t="n">
-        <v>948.7599926430961</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U16" t="n">
-        <v>948.7599926430961</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V16" t="n">
-        <v>948.7599926430961</v>
+        <v>161.6228038740554</v>
       </c>
       <c r="W16" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X16" t="n">
-        <v>714.6796704260792</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y16" t="n">
-        <v>491.5676092427225</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>47.31297010154361</v>
+        <v>1248.500379280328</v>
       </c>
       <c r="C17" t="n">
-        <v>47.31297010154361</v>
+        <v>1248.500379280328</v>
       </c>
       <c r="D17" t="n">
-        <v>47.31297010154361</v>
+        <v>863.0592504969959</v>
       </c>
       <c r="E17" t="n">
-        <v>47.31297010154361</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="F17" t="n">
-        <v>47.31297010154361</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G17" t="n">
         <v>47.31297010154361</v>
@@ -5524,16 +5524,16 @@
         <v>1044.265390756362</v>
       </c>
       <c r="M17" t="n">
-        <v>1590.266290800943</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="N17" t="n">
-        <v>2118.077574438405</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O17" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P17" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q17" t="n">
         <v>2365.64850507718</v>
@@ -5542,25 +5542,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S17" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T17" t="n">
-        <v>2202.609603852878</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U17" t="n">
-        <v>1946.856874287477</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="V17" t="n">
-        <v>1604.750064990995</v>
+        <v>1377.774808715765</v>
       </c>
       <c r="W17" t="n">
-        <v>1233.751029959283</v>
+        <v>1377.774808715765</v>
       </c>
       <c r="X17" t="n">
-        <v>844.2984248923394</v>
+        <v>1377.774808715765</v>
       </c>
       <c r="Y17" t="n">
-        <v>447.8077158129405</v>
+        <v>1377.774808715765</v>
       </c>
     </row>
     <row r="18">
@@ -5594,19 +5594,19 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J18" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K18" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L18" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M18" t="n">
-        <v>1436.116207068686</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N18" t="n">
-        <v>1436.116207068686</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O18" t="n">
         <v>1725.662044805891</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>226.4247948505294</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C19" t="n">
-        <v>56.21967691651864</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D19" t="n">
-        <v>56.21967691651864</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E19" t="n">
-        <v>56.21967691651864</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F19" t="n">
-        <v>56.21967691651864</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G19" t="n">
         <v>47.31297010154361</v>
@@ -5703,22 +5703,22 @@
         <v>745.9439088256454</v>
       </c>
       <c r="T19" t="n">
-        <v>745.9439088256454</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="U19" t="n">
-        <v>460.5051170675463</v>
+        <v>224.7860652357804</v>
       </c>
       <c r="V19" t="n">
-        <v>460.5051170675463</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="W19" t="n">
-        <v>460.5051170675463</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X19" t="n">
-        <v>226.4247948505294</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y19" t="n">
-        <v>226.4247948505294</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1242.824038851968</v>
+        <v>914.3989601866567</v>
       </c>
       <c r="C20" t="n">
-        <v>849.6485373548981</v>
+        <v>521.2234586895872</v>
       </c>
       <c r="D20" t="n">
-        <v>464.2074085715658</v>
+        <v>521.2234586895872</v>
       </c>
       <c r="E20" t="n">
-        <v>464.2074085715658</v>
+        <v>521.2234586895872</v>
       </c>
       <c r="F20" t="n">
-        <v>47.31297010154361</v>
+        <v>104.329020219565</v>
       </c>
       <c r="G20" t="n">
-        <v>47.31297010154361</v>
+        <v>104.329020219565</v>
       </c>
       <c r="H20" t="n">
-        <v>47.31297010154361</v>
+        <v>104.329020219565</v>
       </c>
       <c r="I20" t="n">
         <v>47.31297010154361</v>
@@ -5755,49 +5755,49 @@
         <v>191.9627430103717</v>
       </c>
       <c r="K20" t="n">
-        <v>550.9450990378335</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L20" t="n">
-        <v>1044.265390756362</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="M20" t="n">
-        <v>1590.266290800943</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N20" t="n">
-        <v>2118.077574438405</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O20" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P20" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q20" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R20" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S20" t="n">
-        <v>2208.92619630043</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T20" t="n">
-        <v>1985.425593859846</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U20" t="n">
-        <v>1985.425593859846</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V20" t="n">
-        <v>1643.318784563364</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="W20" t="n">
-        <v>1643.318784563364</v>
+        <v>1310.889669266056</v>
       </c>
       <c r="X20" t="n">
-        <v>1643.318784563364</v>
+        <v>1310.889669266056</v>
       </c>
       <c r="Y20" t="n">
-        <v>1643.318784563364</v>
+        <v>914.3989601866567</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415753</v>
       </c>
       <c r="C21" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016675</v>
       </c>
       <c r="D21" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231478</v>
       </c>
       <c r="E21" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340356</v>
       </c>
       <c r="F21" t="n">
-        <v>305.0574584171666</v>
+        <v>305.0574584171674</v>
       </c>
       <c r="G21" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890318</v>
       </c>
       <c r="H21" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963275</v>
       </c>
       <c r="I21" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154434</v>
       </c>
       <c r="J21" t="n">
         <v>47.31297010154361</v>
@@ -5843,40 +5843,40 @@
         <v>1436.116207068686</v>
       </c>
       <c r="N21" t="n">
-        <v>1436.116207068686</v>
+        <v>2021.614212075288</v>
       </c>
       <c r="O21" t="n">
-        <v>1725.662044805891</v>
+        <v>2021.614212075288</v>
       </c>
       <c r="P21" t="n">
-        <v>2131.283413522289</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q21" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R21" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S21" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T21" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U21" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V21" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W21" t="n">
-        <v>1367.096582257017</v>
+        <v>1367.096582257018</v>
       </c>
       <c r="X21" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y21" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825366</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1619.834595633113</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C22" t="n">
-        <v>1619.834595633113</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D22" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E22" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F22" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G22" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H22" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I22" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J22" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K22" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L22" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M22" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N22" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O22" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P22" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q22" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R22" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S22" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T22" t="n">
-        <v>2365.64850507718</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U22" t="n">
-        <v>2365.64850507718</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V22" t="n">
-        <v>2365.64850507718</v>
+        <v>161.6228038740554</v>
       </c>
       <c r="W22" t="n">
-        <v>2082.318103008358</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X22" t="n">
-        <v>1848.237780791341</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y22" t="n">
-        <v>1805.042614324414</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1208.706155899126</v>
+        <v>1179.210445219441</v>
       </c>
       <c r="C23" t="n">
-        <v>1208.706155899126</v>
+        <v>1179.210445219441</v>
       </c>
       <c r="D23" t="n">
-        <v>1208.706155899126</v>
+        <v>793.769316436109</v>
       </c>
       <c r="E23" t="n">
-        <v>806.1226310156701</v>
+        <v>391.1857915526535</v>
       </c>
       <c r="F23" t="n">
-        <v>806.1226310156701</v>
+        <v>391.1857915526535</v>
       </c>
       <c r="G23" t="n">
-        <v>392.9598755036732</v>
+        <v>391.1857915526535</v>
       </c>
       <c r="H23" t="n">
-        <v>68.87682507016387</v>
+        <v>67.10274111914413</v>
       </c>
       <c r="I23" t="n">
         <v>47.31297010154361</v>
@@ -5992,22 +5992,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K23" t="n">
-        <v>47.31297010154361</v>
+        <v>358.4764287842802</v>
       </c>
       <c r="L23" t="n">
-        <v>540.6332618200724</v>
+        <v>851.7967205028091</v>
       </c>
       <c r="M23" t="n">
-        <v>864.7645682749193</v>
+        <v>1397.79762054739</v>
       </c>
       <c r="N23" t="n">
-        <v>1392.575851912381</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O23" t="n">
-        <v>1832.61545280471</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P23" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q23" t="n">
         <v>2365.64850507718</v>
@@ -6028,13 +6028,13 @@
         <v>2365.64850507718</v>
       </c>
       <c r="W23" t="n">
-        <v>1994.649470045468</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X23" t="n">
-        <v>1605.196864978524</v>
+        <v>1976.195900010237</v>
       </c>
       <c r="Y23" t="n">
-        <v>1208.706155899126</v>
+        <v>1579.705190930838</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415753</v>
       </c>
       <c r="C24" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016675</v>
       </c>
       <c r="D24" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231478</v>
       </c>
       <c r="E24" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340356</v>
       </c>
       <c r="F24" t="n">
-        <v>305.0574584171666</v>
+        <v>305.0574584171674</v>
       </c>
       <c r="G24" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890318</v>
       </c>
       <c r="H24" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963275</v>
       </c>
       <c r="I24" t="n">
+        <v>47.31297010154434</v>
+      </c>
+      <c r="J24" t="n">
         <v>47.31297010154361</v>
       </c>
-      <c r="J24" t="n">
-        <v>160.427952321271</v>
-      </c>
       <c r="K24" t="n">
-        <v>194.5661265746808</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L24" t="n">
-        <v>678.1322124729941</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M24" t="n">
-        <v>1263.630217479596</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N24" t="n">
-        <v>1849.128222486198</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O24" t="n">
-        <v>2365.648505077179</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P24" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q24" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R24" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S24" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T24" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U24" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V24" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W24" t="n">
-        <v>1367.096582257017</v>
+        <v>1367.096582257018</v>
       </c>
       <c r="X24" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y24" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825366</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>725.6479314597394</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C25" t="n">
-        <v>725.6479314597394</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D25" t="n">
-        <v>725.6479314597394</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E25" t="n">
-        <v>570.0891193189419</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F25" t="n">
-        <v>412.7631845319149</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G25" t="n">
-        <v>244.5091306313604</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H25" t="n">
-        <v>89.03057959285439</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I25" t="n">
         <v>47.31297010154361</v>
@@ -6171,28 +6171,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R25" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S25" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T25" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="U25" t="n">
-        <v>948.7599926430961</v>
+        <v>539.420211517574</v>
       </c>
       <c r="V25" t="n">
-        <v>948.7599926430961</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W25" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X25" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y25" t="n">
-        <v>725.6479314597394</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="26">
@@ -6202,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1994.649470045468</v>
+        <v>943.2911859218877</v>
       </c>
       <c r="C26" t="n">
-        <v>1601.473968548398</v>
+        <v>943.2911859218877</v>
       </c>
       <c r="D26" t="n">
-        <v>1216.032839765066</v>
+        <v>943.2911859218877</v>
       </c>
       <c r="E26" t="n">
-        <v>813.4493148816105</v>
+        <v>943.2911859218877</v>
       </c>
       <c r="F26" t="n">
-        <v>784.5587760470498</v>
+        <v>526.3967474518655</v>
       </c>
       <c r="G26" t="n">
-        <v>371.396020535053</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H26" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I26" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J26" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K26" t="n">
-        <v>47.31297010154361</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L26" t="n">
-        <v>503.6092283712875</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M26" t="n">
-        <v>1049.610128415868</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N26" t="n">
-        <v>1577.42141205333</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O26" t="n">
-        <v>2017.461012945658</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P26" t="n">
         <v>2365.64850507718</v>
@@ -6250,28 +6250,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R26" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S26" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T26" t="n">
-        <v>2365.64850507718</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U26" t="n">
-        <v>2365.64850507718</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V26" t="n">
-        <v>2365.64850507718</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="W26" t="n">
-        <v>1994.649470045468</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="X26" t="n">
-        <v>1994.649470045468</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="Y26" t="n">
-        <v>1994.649470045468</v>
+        <v>943.2911859218877</v>
       </c>
     </row>
     <row r="27">
@@ -6305,19 +6305,19 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J27" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K27" t="n">
-        <v>160.4279523212711</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L27" t="n">
-        <v>160.4279523212711</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M27" t="n">
-        <v>623.6437572083089</v>
+        <v>1436.116207068686</v>
       </c>
       <c r="N27" t="n">
-        <v>1209.141762214911</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="O27" t="n">
         <v>1725.662044805892</v>
@@ -6417,13 +6417,13 @@
         <v>713.0409408113302</v>
       </c>
       <c r="U28" t="n">
-        <v>427.6021490532311</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="V28" t="n">
-        <v>161.6228038740554</v>
+        <v>564.7236943873829</v>
       </c>
       <c r="W28" t="n">
-        <v>47.31297010154361</v>
+        <v>281.3932923185605</v>
       </c>
       <c r="X28" t="n">
         <v>47.31297010154361</v>
@@ -6439,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>835.3376237683314</v>
+        <v>1001.396367404531</v>
       </c>
       <c r="C29" t="n">
-        <v>835.3376237683314</v>
+        <v>1001.396367404531</v>
       </c>
       <c r="D29" t="n">
-        <v>449.8964949849991</v>
+        <v>1001.396367404531</v>
       </c>
       <c r="E29" t="n">
-        <v>47.31297010154361</v>
+        <v>598.8128425210757</v>
       </c>
       <c r="F29" t="n">
-        <v>47.31297010154361</v>
+        <v>598.8128425210757</v>
       </c>
       <c r="G29" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H29" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I29" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J29" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K29" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L29" t="n">
-        <v>503.6092283712875</v>
+        <v>685.2830347289006</v>
       </c>
       <c r="M29" t="n">
-        <v>1049.610128415868</v>
+        <v>1231.283934773481</v>
       </c>
       <c r="N29" t="n">
-        <v>1577.42141205333</v>
+        <v>1759.095218410943</v>
       </c>
       <c r="O29" t="n">
-        <v>2017.461012945658</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="P29" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q29" t="n">
         <v>2365.64850507718</v>
@@ -6490,25 +6490,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S29" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T29" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="U29" t="n">
-        <v>2365.64850507718</v>
+        <v>1943.38222045283</v>
       </c>
       <c r="V29" t="n">
-        <v>2365.64850507718</v>
+        <v>1787.339681550873</v>
       </c>
       <c r="W29" t="n">
-        <v>2021.77568362607</v>
+        <v>1787.339681550873</v>
       </c>
       <c r="X29" t="n">
-        <v>1632.323078559127</v>
+        <v>1397.88707648393</v>
       </c>
       <c r="Y29" t="n">
-        <v>1235.832369479728</v>
+        <v>1001.396367404531</v>
       </c>
     </row>
     <row r="30">
@@ -6518,67 +6518,67 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C30" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D30" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E30" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F30" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G30" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H30" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I30" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J30" t="n">
-        <v>47.31297010154361</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K30" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L30" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M30" t="n">
-        <v>850.6182020620834</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N30" t="n">
-        <v>1209.14176221491</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O30" t="n">
-        <v>1725.662044805891</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P30" t="n">
-        <v>2131.283413522289</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q30" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R30" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S30" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T30" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U30" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V30" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W30" t="n">
         <v>1367.096582257017</v>
@@ -6587,7 +6587,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y30" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1464.201482535628</v>
+        <v>114.011453636999</v>
       </c>
       <c r="C31" t="n">
-        <v>1464.201482535628</v>
+        <v>114.011453636999</v>
       </c>
       <c r="D31" t="n">
-        <v>1464.201482535628</v>
+        <v>114.011453636999</v>
       </c>
       <c r="E31" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F31" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G31" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H31" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I31" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J31" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K31" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L31" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M31" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N31" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O31" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P31" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q31" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R31" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S31" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T31" t="n">
-        <v>2129.929453245415</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U31" t="n">
-        <v>1844.490661487315</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V31" t="n">
-        <v>1578.51131630814</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="W31" t="n">
-        <v>1464.201482535628</v>
+        <v>114.011453636999</v>
       </c>
       <c r="X31" t="n">
-        <v>1464.201482535628</v>
+        <v>114.011453636999</v>
       </c>
       <c r="Y31" t="n">
-        <v>1464.201482535628</v>
+        <v>114.011453636999</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1402.149495227435</v>
+        <v>1307.169534131323</v>
       </c>
       <c r="C32" t="n">
-        <v>1008.973993730366</v>
+        <v>1307.169534131323</v>
       </c>
       <c r="D32" t="n">
-        <v>623.5328649470334</v>
+        <v>1307.169534131323</v>
       </c>
       <c r="E32" t="n">
-        <v>623.5328649470334</v>
+        <v>1307.169534131323</v>
       </c>
       <c r="F32" t="n">
-        <v>623.5328649470334</v>
+        <v>890.2750956613007</v>
       </c>
       <c r="G32" t="n">
-        <v>210.3701094350366</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H32" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I32" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J32" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K32" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L32" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M32" t="n">
-        <v>1445.616517892115</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N32" t="n">
-        <v>1973.427801529577</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="O32" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P32" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q32" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R32" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S32" t="n">
-        <v>2199.134950018231</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T32" t="n">
-        <v>2199.134950018231</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U32" t="n">
-        <v>2199.134950018231</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="V32" t="n">
-        <v>2199.134950018231</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="W32" t="n">
-        <v>2199.134950018231</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="X32" t="n">
-        <v>2199.134950018231</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="Y32" t="n">
-        <v>1802.644240938832</v>
+        <v>1707.66427984272</v>
       </c>
     </row>
     <row r="33">
@@ -6782,19 +6782,19 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K33" t="n">
-        <v>47.31297010154361</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L33" t="n">
-        <v>530.8790559998569</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M33" t="n">
-        <v>1116.377061006459</v>
+        <v>1436.116207068686</v>
       </c>
       <c r="N33" t="n">
-        <v>1701.875066013061</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="O33" t="n">
-        <v>2218.395348604042</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P33" t="n">
         <v>2365.648505077179</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1945.340283364007</v>
+        <v>114.011453636999</v>
       </c>
       <c r="C34" t="n">
-        <v>1945.340283364007</v>
+        <v>114.011453636999</v>
       </c>
       <c r="D34" t="n">
-        <v>1945.340283364007</v>
+        <v>114.011453636999</v>
       </c>
       <c r="E34" t="n">
-        <v>1789.781471223209</v>
+        <v>114.011453636999</v>
       </c>
       <c r="F34" t="n">
-        <v>1632.455536436182</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G34" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H34" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I34" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J34" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K34" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L34" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M34" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N34" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O34" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P34" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q34" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R34" t="n">
-        <v>2241.747515709757</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S34" t="n">
-        <v>2038.931431892307</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T34" t="n">
-        <v>1945.340283364007</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U34" t="n">
-        <v>1945.340283364007</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V34" t="n">
-        <v>1945.340283364007</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="W34" t="n">
-        <v>1945.340283364007</v>
+        <v>114.011453636999</v>
       </c>
       <c r="X34" t="n">
-        <v>1945.340283364007</v>
+        <v>114.011453636999</v>
       </c>
       <c r="Y34" t="n">
-        <v>1945.340283364007</v>
+        <v>114.011453636999</v>
       </c>
     </row>
     <row r="35">
@@ -6913,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2058.57031924742</v>
+        <v>862.595309970646</v>
       </c>
       <c r="C35" t="n">
-        <v>1665.394817750351</v>
+        <v>862.595309970646</v>
       </c>
       <c r="D35" t="n">
-        <v>1279.953688967018</v>
+        <v>862.595309970646</v>
       </c>
       <c r="E35" t="n">
-        <v>877.3701640835627</v>
+        <v>602.544525479101</v>
       </c>
       <c r="F35" t="n">
-        <v>460.4757256135405</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="G35" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H35" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I35" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J35" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K35" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L35" t="n">
-        <v>318.7636682303387</v>
+        <v>503.6092283712875</v>
       </c>
       <c r="M35" t="n">
-        <v>864.7645682749193</v>
+        <v>1049.610128415868</v>
       </c>
       <c r="N35" t="n">
-        <v>1392.575851912381</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O35" t="n">
-        <v>1832.61545280471</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P35" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q35" t="n">
         <v>2365.64850507718</v>
@@ -6973,16 +6973,16 @@
         <v>2365.64850507718</v>
       </c>
       <c r="V35" t="n">
-        <v>2058.57031924742</v>
+        <v>2023.541695780699</v>
       </c>
       <c r="W35" t="n">
-        <v>2058.57031924742</v>
+        <v>1652.542660748986</v>
       </c>
       <c r="X35" t="n">
-        <v>2058.57031924742</v>
+        <v>1263.090055682043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2058.57031924742</v>
+        <v>1263.090055682043</v>
       </c>
     </row>
     <row r="36">
@@ -6992,67 +6992,67 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C36" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D36" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E36" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F36" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G36" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H36" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I36" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J36" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="K36" t="n">
-        <v>47.31297010154361</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L36" t="n">
-        <v>530.8790559998569</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M36" t="n">
-        <v>1116.377061006459</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="N36" t="n">
-        <v>1701.875066013061</v>
+        <v>1436.116207068686</v>
       </c>
       <c r="O36" t="n">
-        <v>2218.395348604042</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P36" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q36" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R36" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S36" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T36" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U36" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V36" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W36" t="n">
         <v>1367.096582257017</v>
@@ -7061,7 +7061,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y36" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C37" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D37" t="n">
-        <v>817.0247473313507</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E37" t="n">
-        <v>661.4659351905532</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F37" t="n">
-        <v>504.1400004035262</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G37" t="n">
-        <v>335.8859465029718</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H37" t="n">
-        <v>180.4073954644657</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I37" t="n">
         <v>47.31297010154361</v>
@@ -7128,19 +7128,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="U37" t="n">
-        <v>948.7599926430961</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V37" t="n">
-        <v>948.7599926430961</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="W37" t="n">
-        <v>948.7599926430961</v>
+        <v>114.011453636999</v>
       </c>
       <c r="X37" t="n">
-        <v>948.7599926430961</v>
+        <v>114.011453636999</v>
       </c>
       <c r="Y37" t="n">
-        <v>948.7599926430961</v>
+        <v>114.011453636999</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1969.157795997781</v>
+        <v>932.8105977100236</v>
       </c>
       <c r="C38" t="n">
-        <v>1665.394817750351</v>
+        <v>539.6350962129541</v>
       </c>
       <c r="D38" t="n">
-        <v>1279.953688967018</v>
+        <v>539.6350962129541</v>
       </c>
       <c r="E38" t="n">
-        <v>877.3701640835627</v>
+        <v>539.6350962129541</v>
       </c>
       <c r="F38" t="n">
-        <v>460.4757256135405</v>
+        <v>539.6350962129541</v>
       </c>
       <c r="G38" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H38" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I38" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J38" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K38" t="n">
-        <v>406.2953261290054</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L38" t="n">
-        <v>851.7967205028091</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="M38" t="n">
-        <v>1397.79762054739</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N38" t="n">
-        <v>1925.608904184852</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O38" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P38" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q38" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R38" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S38" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T38" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U38" t="n">
-        <v>2365.64850507718</v>
+        <v>2071.902861797301</v>
       </c>
       <c r="V38" t="n">
-        <v>2365.64850507718</v>
+        <v>1729.796052500819</v>
       </c>
       <c r="W38" t="n">
-        <v>2365.64850507718</v>
+        <v>1729.796052500819</v>
       </c>
       <c r="X38" t="n">
-        <v>2365.64850507718</v>
+        <v>1729.796052500819</v>
       </c>
       <c r="Y38" t="n">
-        <v>1969.157795997781</v>
+        <v>1333.305343421421</v>
       </c>
     </row>
     <row r="39">
@@ -7229,67 +7229,67 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C39" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D39" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E39" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F39" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G39" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H39" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I39" t="n">
+        <v>47.31297010154367</v>
+      </c>
+      <c r="J39" t="n">
         <v>47.31297010154361</v>
       </c>
-      <c r="J39" t="n">
-        <v>160.427952321271</v>
-      </c>
       <c r="K39" t="n">
-        <v>160.427952321271</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L39" t="n">
-        <v>643.9940382195842</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M39" t="n">
-        <v>1229.492043226187</v>
+        <v>1436.116207068686</v>
       </c>
       <c r="N39" t="n">
-        <v>1443.506853769801</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="O39" t="n">
-        <v>1960.027136360782</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P39" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q39" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R39" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S39" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T39" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U39" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V39" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W39" t="n">
         <v>1367.096582257017</v>
@@ -7298,7 +7298,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y39" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1783.152729110954</v>
+        <v>202.9460831990289</v>
       </c>
       <c r="C40" t="n">
-        <v>1783.152729110954</v>
+        <v>202.9460831990289</v>
       </c>
       <c r="D40" t="n">
-        <v>1783.152729110954</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E40" t="n">
-        <v>1783.152729110954</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F40" t="n">
-        <v>1783.152729110954</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G40" t="n">
-        <v>1783.152729110954</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H40" t="n">
-        <v>1627.674178072448</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I40" t="n">
-        <v>1494.579752709526</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J40" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K40" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L40" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M40" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N40" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O40" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P40" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q40" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R40" t="n">
-        <v>2241.747515709757</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S40" t="n">
-        <v>2038.931431892307</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T40" t="n">
-        <v>1803.212380060541</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U40" t="n">
-        <v>1783.152729110954</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V40" t="n">
-        <v>1783.152729110954</v>
+        <v>486.2764852678512</v>
       </c>
       <c r="W40" t="n">
-        <v>1783.152729110954</v>
+        <v>202.9460831990289</v>
       </c>
       <c r="X40" t="n">
-        <v>1783.152729110954</v>
+        <v>202.9460831990289</v>
       </c>
       <c r="Y40" t="n">
-        <v>1783.152729110954</v>
+        <v>202.9460831990289</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1673.129190464088</v>
+        <v>1031.150460195723</v>
       </c>
       <c r="C41" t="n">
-        <v>1279.953688967018</v>
+        <v>1031.150460195723</v>
       </c>
       <c r="D41" t="n">
-        <v>1279.953688967018</v>
+        <v>645.7093314123904</v>
       </c>
       <c r="E41" t="n">
-        <v>877.3701640835627</v>
+        <v>645.7093314123904</v>
       </c>
       <c r="F41" t="n">
-        <v>460.4757256135405</v>
+        <v>228.8148929423681</v>
       </c>
       <c r="G41" t="n">
         <v>47.31297010154361</v>
@@ -7411,25 +7411,25 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J41" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K41" t="n">
-        <v>406.2953261290054</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L41" t="n">
-        <v>899.6156178475343</v>
+        <v>685.2830347289006</v>
       </c>
       <c r="M41" t="n">
-        <v>1445.616517892115</v>
+        <v>1231.283934773481</v>
       </c>
       <c r="N41" t="n">
-        <v>1973.427801529577</v>
+        <v>1759.095218410943</v>
       </c>
       <c r="O41" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P41" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q41" t="n">
         <v>2365.64850507718</v>
@@ -7438,25 +7438,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S41" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T41" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="U41" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="V41" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="W41" t="n">
-        <v>2365.64850507718</v>
+        <v>1828.135914986518</v>
       </c>
       <c r="X41" t="n">
-        <v>2365.64850507718</v>
+        <v>1828.135914986518</v>
       </c>
       <c r="Y41" t="n">
-        <v>2073.623936175485</v>
+        <v>1431.64520590712</v>
       </c>
     </row>
     <row r="42">
@@ -7493,22 +7493,22 @@
         <v>160.427952321271</v>
       </c>
       <c r="K42" t="n">
-        <v>160.427952321271</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L42" t="n">
-        <v>643.9940382195842</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M42" t="n">
-        <v>1229.492043226187</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="N42" t="n">
-        <v>1443.506853769801</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O42" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P42" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q42" t="n">
         <v>2365.648505077179</v>
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>825.9296003819453</v>
+        <v>895.1742662259204</v>
       </c>
       <c r="C44" t="n">
-        <v>432.7540988848759</v>
+        <v>895.1742662259204</v>
       </c>
       <c r="D44" t="n">
-        <v>47.31297010154361</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="E44" t="n">
-        <v>47.31297010154361</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="F44" t="n">
-        <v>47.31297010154361</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="G44" t="n">
-        <v>47.31297010154361</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H44" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I44" t="n">
         <v>47.31297010154361</v>
@@ -7651,16 +7651,16 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K44" t="n">
-        <v>358.4764287842802</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L44" t="n">
-        <v>851.7967205028091</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M44" t="n">
-        <v>1397.79762054739</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N44" t="n">
-        <v>1925.608904184852</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O44" t="n">
         <v>2365.64850507718</v>
@@ -7672,28 +7672,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R44" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S44" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T44" t="n">
-        <v>2365.64850507718</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U44" t="n">
-        <v>2109.895775511779</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V44" t="n">
-        <v>2109.895775511779</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="W44" t="n">
-        <v>2012.367660239684</v>
+        <v>968.782859969574</v>
       </c>
       <c r="X44" t="n">
-        <v>1622.915055172741</v>
+        <v>968.782859969574</v>
       </c>
       <c r="Y44" t="n">
-        <v>1226.424346093342</v>
+        <v>895.1742662259204</v>
       </c>
     </row>
     <row r="45">
@@ -7730,19 +7730,19 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K45" t="n">
-        <v>194.5661265746808</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L45" t="n">
-        <v>678.1322124729941</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M45" t="n">
-        <v>1263.630217479596</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N45" t="n">
-        <v>1849.128222486198</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O45" t="n">
-        <v>2365.648505077179</v>
+        <v>2218.395348604042</v>
       </c>
       <c r="P45" t="n">
         <v>2365.648505077179</v>
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>379.9907988161747</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C46" t="n">
-        <v>358.5048953398264</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D46" t="n">
-        <v>202.8717822423411</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E46" t="n">
         <v>47.31297010154361</v>
@@ -7842,16 +7842,16 @@
         <v>663.3212008849971</v>
       </c>
       <c r="V46" t="n">
-        <v>663.3212008849971</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="W46" t="n">
-        <v>379.9907988161747</v>
+        <v>114.011453636999</v>
       </c>
       <c r="X46" t="n">
-        <v>379.9907988161747</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y46" t="n">
-        <v>379.9907988161747</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
@@ -7987,16 +7987,16 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>701.2411122488187</v>
+        <v>688.2664872512298</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
         <v>144.4986984183922</v>
@@ -8057,25 +8057,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
         <v>683.7992483186069</v>
       </c>
       <c r="N3" t="n">
-        <v>344.5555886567312</v>
+        <v>474.5348277078255</v>
       </c>
       <c r="O3" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8215,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>270.4260094517309</v>
       </c>
       <c r="M5" t="n">
-        <v>149.7250515977273</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N5" t="n">
-        <v>647.0581217063165</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
         <v>331.2113854294513</v>
@@ -8294,22 +8294,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
         <v>683.7992483186069</v>
       </c>
       <c r="N6" t="n">
-        <v>667.5244230630205</v>
+        <v>263.5850982253579</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8455,13 +8455,13 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>271.1401458256686</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>331.0195299270391</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
@@ -8540,10 +8540,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>92.38712204931191</v>
+        <v>340.274574506989</v>
       </c>
       <c r="N9" t="n">
-        <v>569.9919810238536</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8552,7 +8552,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8695,22 +8695,22 @@
         <v>505.666843611017</v>
       </c>
       <c r="L11" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M11" t="n">
-        <v>701.2411122488187</v>
+        <v>466.7144144634705</v>
       </c>
       <c r="N11" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O11" t="n">
-        <v>399.6354845339704</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P11" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8774,13 +8774,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>683.7992483186069</v>
+        <v>340.2745745069881</v>
       </c>
       <c r="N12" t="n">
-        <v>467.0304465710365</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -8789,7 +8789,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K14" t="n">
         <v>505.666843611017</v>
@@ -8941,7 +8941,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O14" t="n">
-        <v>545.7463662600596</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P14" t="n">
         <v>150.3014472409252</v>
@@ -9008,25 +9008,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
         <v>683.7992483186069</v>
       </c>
       <c r="N15" t="n">
-        <v>581.2880043687418</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>116.714810194778</v>
       </c>
       <c r="P15" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9172,19 +9172,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M17" t="n">
-        <v>701.2411122488187</v>
+        <v>501.5538002401705</v>
       </c>
       <c r="N17" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O17" t="n">
-        <v>399.6354845339704</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P17" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9242,7 +9242,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
@@ -9251,13 +9251,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118428</v>
       </c>
       <c r="O18" t="n">
-        <v>385.1581020577837</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
@@ -9403,10 +9403,10 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K20" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L20" t="n">
-        <v>651.5514946987026</v>
+        <v>281.3299123769229</v>
       </c>
       <c r="M20" t="n">
         <v>701.2411122488187</v>
@@ -9415,13 +9415,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O20" t="n">
-        <v>399.6354845339704</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P20" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q20" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9491,13 +9491,13 @@
         <v>683.7992483186069</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O21" t="n">
-        <v>385.1581020577837</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>197.8603359779025</v>
       </c>
       <c r="Q21" t="n">
         <v>327.7205688679246</v>
@@ -9640,13 +9640,13 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K23" t="n">
-        <v>143.0584031792374</v>
+        <v>457.3649271011935</v>
       </c>
       <c r="L23" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M23" t="n">
-        <v>477.1304116531281</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N23" t="n">
         <v>682.2612020826953</v>
@@ -9655,10 +9655,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P23" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q23" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R23" t="n">
         <v>102.5176150018526</v>
@@ -9716,28 +9716,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>124.0799396297069</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>683.7992483186069</v>
+        <v>454.5321323046934</v>
       </c>
       <c r="N24" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K26" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L26" t="n">
-        <v>614.1534811140714</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M26" t="n">
         <v>701.2411122488187</v>
@@ -9889,10 +9889,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O26" t="n">
-        <v>594.0482827698827</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P26" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q26" t="n">
         <v>144.4986984183922</v>
@@ -9953,22 +9953,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>560.2818744604613</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N27" t="n">
-        <v>676.7842391234617</v>
+        <v>377.8426560230623</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K29" t="n">
         <v>143.0584031792374</v>
       </c>
       <c r="L29" t="n">
-        <v>614.1534811140714</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M29" t="n">
         <v>701.2411122488187</v>
@@ -10126,13 +10126,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O29" t="n">
-        <v>594.0482827698827</v>
+        <v>575.5312379546906</v>
       </c>
       <c r="P29" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q29" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R29" t="n">
         <v>102.5176150018526</v>
@@ -10190,7 +10190,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10199,10 +10199,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>340.274574506989</v>
       </c>
       <c r="N30" t="n">
-        <v>447.5171231095472</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K32" t="n">
         <v>505.666843611017</v>
@@ -10360,16 +10360,16 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N32" t="n">
-        <v>682.2612020826953</v>
+        <v>393.9156246749224</v>
       </c>
       <c r="O32" t="n">
-        <v>545.7463662600596</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P32" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q32" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R32" t="n">
         <v>102.5176150018526</v>
@@ -10430,7 +10430,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
@@ -10439,13 +10439,13 @@
         <v>683.7992483186069</v>
       </c>
       <c r="N33" t="n">
-        <v>676.7842391234617</v>
+        <v>614.5750717350721</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P33" t="n">
-        <v>235.8239269133925</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
         <v>90.98815315591399</v>
@@ -10585,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K35" t="n">
         <v>143.0584031792374</v>
       </c>
       <c r="L35" t="n">
-        <v>427.440794103012</v>
+        <v>468.0425993879824</v>
       </c>
       <c r="M35" t="n">
         <v>701.2411122488187</v>
@@ -10606,7 +10606,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q35" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R35" t="n">
         <v>102.5176150018526</v>
@@ -10667,25 +10667,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
         <v>676.7842391234617</v>
       </c>
       <c r="O36" t="n">
-        <v>614.4252180716981</v>
+        <v>385.1581020577846</v>
       </c>
       <c r="P36" t="n">
-        <v>235.8239269133925</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10822,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K38" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L38" t="n">
-        <v>603.2495781888792</v>
+        <v>281.3299123769229</v>
       </c>
       <c r="M38" t="n">
         <v>701.2411122488187</v>
@@ -10840,10 +10840,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P38" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q38" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R38" t="n">
         <v>102.5176150018526</v>
@@ -10901,10 +10901,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
@@ -10913,10 +10913,10 @@
         <v>683.7992483186069</v>
       </c>
       <c r="N39" t="n">
-        <v>301.5486891608477</v>
+        <v>614.575071735073</v>
       </c>
       <c r="O39" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P39" t="n">
         <v>496.801919078302</v>
@@ -11059,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K41" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L41" t="n">
         <v>651.5514946987026</v>
@@ -11074,13 +11074,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O41" t="n">
-        <v>545.7463662600596</v>
+        <v>223.8267004481029</v>
       </c>
       <c r="P41" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q41" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R41" t="n">
         <v>102.5176150018526</v>
@@ -11141,16 +11141,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>683.7992483186069</v>
+        <v>340.2745745069881</v>
       </c>
       <c r="N42" t="n">
-        <v>301.5486891608477</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11159,7 +11159,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11299,7 +11299,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K44" t="n">
-        <v>457.3649271011935</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L44" t="n">
         <v>651.5514946987026</v>
@@ -11311,7 +11311,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O44" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600596</v>
       </c>
       <c r="P44" t="n">
         <v>150.3014472409252</v>
@@ -11378,7 +11378,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>238.3374974274113</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
@@ -11393,7 +11393,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>87.08336481931465</v>
+        <v>235.8239269133925</v>
       </c>
       <c r="Q45" t="n">
         <v>90.98815315591399</v>
@@ -22555,19 +22555,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>271.0584388059713</v>
       </c>
       <c r="F2" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>283.4243770262273</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22606,13 +22606,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22704,25 +22704,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>99.59465654019991</v>
       </c>
       <c r="D4" t="n">
-        <v>25.5904425010043</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22752,7 +22752,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
@@ -22770,7 +22770,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
@@ -22798,13 +22798,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>18.53909549158942</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>226.1241240101498</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22947,25 +22947,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22995,22 +22995,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>124.8917514574866</v>
       </c>
     </row>
     <row r="8">
@@ -23020,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,25 +23071,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>275.4298657917178</v>
       </c>
       <c r="W8" t="n">
-        <v>26.10323880498248</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -23181,22 +23181,22 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>60.39847475326034</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
         <v>131.7634811092929</v>
@@ -23232,19 +23232,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>118.5727835600601</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H11" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>136.9537457384598</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>37.61298457733328</v>
+        <v>14.5690734290621</v>
       </c>
       <c r="S11" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T11" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>17.54100829227411</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H13" t="n">
-        <v>142.1290630551114</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I13" t="n">
         <v>131.7634811092929</v>
@@ -23466,16 +23466,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S13" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>87.62118754448957</v>
       </c>
       <c r="W13" t="n">
         <v>280.4970980481341</v>
@@ -23484,7 +23484,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="14">
@@ -23503,7 +23503,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T14" t="n">
-        <v>59.15089186955521</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23557,7 +23557,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>27.88224691632973</v>
       </c>
       <c r="X14" t="n">
         <v>385.5580790162737</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
         <v>154.0767819665104</v>
@@ -23667,7 +23667,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>78.61842587084078</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H16" t="n">
         <v>153.923765528121</v>
@@ -23706,22 +23706,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="17">
@@ -23731,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>268.5081131132007</v>
       </c>
       <c r="C17" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>320.8422199291742</v>
@@ -23782,10 +23782,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>59.85708420411831</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23794,13 +23794,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="18">
@@ -23892,7 +23892,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
         <v>154.0767819665104</v>
@@ -23904,7 +23904,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
-        <v>157.7538736147236</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H19" t="n">
         <v>153.923765528121</v>
@@ -23943,19 +23943,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>87.62118754448957</v>
       </c>
       <c r="W19" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
         <v>220.8809405715231</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
         <v>398.5576896346209</v>
@@ -23989,7 +23989,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I20" t="n">
-        <v>136.9537457384598</v>
+        <v>80.50785612161864</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>9.693333819376818</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
         <v>154.0032240193895</v>
@@ -24180,22 +24180,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>178.1177257692653</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24220,13 +24220,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>115.6055293195257</v>
+        <v>117.3618724310353</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24268,7 +24268,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I25" t="n">
-        <v>90.4630477128952</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J25" t="n">
         <v>30.07448747215907</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>200.7879229792761</v>
@@ -24420,19 +24420,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>56.63048077364809</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -24445,25 +24445,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>384.123860639107</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>71.69193411851802</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I26" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24657,16 +24657,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>116.4854777676762</v>
       </c>
       <c r="W28" t="n">
-        <v>167.3303626133475</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>220.8809405715231</v>
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,13 +24694,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,19 +24730,19 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>184.2036276905799</v>
       </c>
       <c r="W29" t="n">
-        <v>26.85495144479631</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24846,7 +24846,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>154.0032240193895</v>
+        <v>87.97172531928871</v>
       </c>
       <c r="F31" t="n">
         <v>155.7526754391568</v>
@@ -24891,7 +24891,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>167.3303626133472</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
@@ -24919,25 +24919,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>32.29458932035141</v>
       </c>
       <c r="H32" t="n">
-        <v>159.4156519890162</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,13 +24964,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>253.1952022697474</v>
@@ -25083,13 +25083,13 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>89.72117673905598</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H34" t="n">
         <v>153.923765528121</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T34" t="n">
-        <v>140.706624270431</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>231.7395189948467</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>141.1074129879914</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I35" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25213,13 +25213,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
-        <v>34.67833723205388</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>392.5258019886049</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>183.3559385043883</v>
+        <v>117.3244398042875</v>
       </c>
       <c r="C37" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>23.65888910788243</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J37" t="n">
         <v>30.07448747215907</v>
@@ -25368,13 +25368,13 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>231.7395189948467</v>
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>88.51839801714203</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>58.58596884504033</v>
       </c>
       <c r="H38" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I38" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>164.8484195083599</v>
@@ -25447,10 +25447,10 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U38" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>367.2890446813954</v>
@@ -25554,7 +25554,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>154.0032240193895</v>
@@ -25566,13 +25566,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U40" t="n">
-        <v>262.7253494004268</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>88.0452832664096</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>231.7395189948467</v>
@@ -25630,19 +25630,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>229.3442243444606</v>
       </c>
       <c r="H41" t="n">
         <v>320.8422199291742</v>
@@ -25678,7 +25678,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>221.2655964161775</v>
@@ -25690,13 +25690,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>103.4214787759262</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H44" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>270.7362105620214</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>319.6532941823878</v>
       </c>
     </row>
     <row r="45">
@@ -26025,13 +26025,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>147.2320223130858</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
         <v>155.7526754391568</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>165.7080202947459</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>644463.5466854206</v>
+        <v>644463.5466854211</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>644463.5466854208</v>
+        <v>644463.5466854211</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>644463.5466854207</v>
+        <v>644463.546685421</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>644463.5466854207</v>
+        <v>644463.5466854211</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>644463.5466854208</v>
+        <v>644463.546685421</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>644463.5466854206</v>
+        <v>644463.5466854211</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>644463.546685421</v>
+        <v>644463.5466854211</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>644463.5466854206</v>
+        <v>644463.5466854209</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>644463.5466854206</v>
+        <v>644463.5466854211</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>644463.5466854206</v>
+        <v>644463.546685421</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>644463.5466854207</v>
+        <v>644463.5466854211</v>
       </c>
     </row>
   </sheetData>
@@ -26319,19 +26319,19 @@
         <v>203273.217848435</v>
       </c>
       <c r="D2" t="n">
-        <v>203273.2178484352</v>
+        <v>203273.2178484351</v>
       </c>
       <c r="E2" t="n">
-        <v>203273.2178484352</v>
+        <v>203273.217848435</v>
       </c>
       <c r="F2" t="n">
-        <v>203273.2178484351</v>
+        <v>203273.217848435</v>
       </c>
       <c r="G2" t="n">
-        <v>203273.2178484352</v>
+        <v>203273.217848435</v>
       </c>
       <c r="H2" t="n">
-        <v>203273.2178484351</v>
+        <v>203273.217848435</v>
       </c>
       <c r="I2" t="n">
         <v>203273.2178484351</v>
@@ -26343,7 +26343,7 @@
         <v>203273.2178484351</v>
       </c>
       <c r="L2" t="n">
-        <v>203273.2178484351</v>
+        <v>203273.217848435</v>
       </c>
       <c r="M2" t="n">
         <v>203273.2178484351</v>
@@ -26423,10 +26423,10 @@
         <v>57691.12693712542</v>
       </c>
       <c r="D4" t="n">
+        <v>57691.12693712542</v>
+      </c>
+      <c r="E4" t="n">
         <v>57691.12693712541</v>
-      </c>
-      <c r="E4" t="n">
-        <v>57691.1269371254</v>
       </c>
       <c r="F4" t="n">
         <v>57691.12693712541</v>
@@ -26435,7 +26435,7 @@
         <v>57691.1269371254</v>
       </c>
       <c r="H4" t="n">
-        <v>57691.1269371254</v>
+        <v>57691.12693712542</v>
       </c>
       <c r="I4" t="n">
         <v>57691.12693712541</v>
@@ -26444,22 +26444,22 @@
         <v>57691.12693712541</v>
       </c>
       <c r="K4" t="n">
-        <v>57691.12693712541</v>
+        <v>57691.12693712542</v>
       </c>
       <c r="L4" t="n">
-        <v>57691.12693712541</v>
+        <v>57691.12693712542</v>
       </c>
       <c r="M4" t="n">
-        <v>57691.12693712541</v>
+        <v>57691.12693712542</v>
       </c>
       <c r="N4" t="n">
         <v>57691.12693712541</v>
       </c>
       <c r="O4" t="n">
-        <v>57691.12693712541</v>
+        <v>57691.12693712542</v>
       </c>
       <c r="P4" t="n">
-        <v>57691.1269371254</v>
+        <v>57691.12693712542</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-122199.1723576084</v>
+        <v>-122873.1984838284</v>
       </c>
       <c r="C6" t="n">
-        <v>75996.63363413645</v>
+        <v>75322.6075079164</v>
       </c>
       <c r="D6" t="n">
-        <v>75996.63363413661</v>
+        <v>75322.60750791652</v>
       </c>
       <c r="E6" t="n">
-        <v>109624.2336341366</v>
+        <v>108950.2075079164</v>
       </c>
       <c r="F6" t="n">
-        <v>109624.2336341365</v>
+        <v>108950.2075079165</v>
       </c>
       <c r="G6" t="n">
-        <v>109624.2336341366</v>
+        <v>108950.2075079165</v>
       </c>
       <c r="H6" t="n">
-        <v>109624.2336341366</v>
+        <v>108950.2075079164</v>
       </c>
       <c r="I6" t="n">
-        <v>109624.2336341365</v>
+        <v>108950.2075079165</v>
       </c>
       <c r="J6" t="n">
-        <v>-45115.2007314669</v>
+        <v>-45789.22685768689</v>
       </c>
       <c r="K6" t="n">
-        <v>109624.2336341366</v>
+        <v>108950.2075079165</v>
       </c>
       <c r="L6" t="n">
-        <v>109624.2336341366</v>
+        <v>108950.2075079165</v>
       </c>
       <c r="M6" t="n">
-        <v>109624.2336341365</v>
+        <v>108950.2075079165</v>
       </c>
       <c r="N6" t="n">
-        <v>109624.2336341366</v>
+        <v>108950.2075079166</v>
       </c>
       <c r="O6" t="n">
-        <v>109624.2336341366</v>
+        <v>108950.2075079165</v>
       </c>
       <c r="P6" t="n">
-        <v>109624.2336341366</v>
+        <v>108950.2075079165</v>
       </c>
     </row>
   </sheetData>
@@ -34698,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
@@ -34707,16 +34707,16 @@
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>551.5160606510915</v>
+        <v>538.5414356535026</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="N3" t="n">
-        <v>259.1834758025645</v>
+        <v>389.1627148536588</v>
       </c>
       <c r="O3" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>117.1778397212393</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N5" t="n">
-        <v>497.9396303685323</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>186.7126870110591</v>
@@ -35014,22 +35014,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="N6" t="n">
-        <v>582.1523102088539</v>
+        <v>178.2129853711913</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35175,13 +35175,13 @@
         <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>128.0817426464313</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>181.2944783293118</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
@@ -35260,10 +35260,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="N9" t="n">
-        <v>484.6198681696869</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35272,7 +35272,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35415,22 +35415,22 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L11" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>551.5160606510915</v>
+        <v>316.9893628657432</v>
       </c>
       <c r="N11" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O11" t="n">
-        <v>250.071647109874</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35494,13 +35494,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>591.4121262692951</v>
+        <v>247.8874524576762</v>
       </c>
       <c r="N12" t="n">
-        <v>381.6583337168698</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35509,7 +35509,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K14" t="n">
         <v>362.6084404317796</v>
@@ -35661,7 +35661,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
-        <v>396.1825288359632</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="N15" t="n">
-        <v>495.9158915145752</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>24.02725130588916</v>
       </c>
       <c r="P15" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35892,19 +35892,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M17" t="n">
-        <v>551.5160606510915</v>
+        <v>351.8287486424433</v>
       </c>
       <c r="N17" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>250.071647109874</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
@@ -35971,13 +35971,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>247.8874524576762</v>
       </c>
       <c r="O18" t="n">
-        <v>292.4705431688948</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
         <v>409.7185542589873</v>
@@ -36123,10 +36123,10 @@
         <v>146.110881726089</v>
       </c>
       <c r="K20" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>498.303324968211</v>
+        <v>128.0817426464313</v>
       </c>
       <c r="M20" t="n">
         <v>551.5160606510915</v>
@@ -36135,13 +36135,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
-        <v>250.071647109874</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36211,13 +36211,13 @@
         <v>591.4121262692951</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O21" t="n">
-        <v>292.4705431688948</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>110.7769711585879</v>
       </c>
       <c r="Q21" t="n">
         <v>236.7324157120106</v>
@@ -36360,13 +36360,13 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>314.3065239219562</v>
       </c>
       <c r="L23" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M23" t="n">
-        <v>327.4053600554008</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N23" t="n">
         <v>533.1427107449111</v>
@@ -36375,10 +36375,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P23" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>34.48300429637357</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>591.4121262692951</v>
+        <v>362.1450102553815</v>
       </c>
       <c r="N24" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
-        <v>460.9053113835797</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M26" t="n">
         <v>551.5160606510915</v>
@@ -36609,10 +36609,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
-        <v>444.4844453457863</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P26" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36673,22 +36673,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>467.8947524111493</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N27" t="n">
-        <v>591.4121262692951</v>
+        <v>292.4705431688957</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
@@ -36831,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>460.9053113835797</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M29" t="n">
         <v>551.5160606510915</v>
@@ -36846,13 +36846,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>444.4844453457863</v>
+        <v>425.9674005305943</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36919,10 +36919,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="N30" t="n">
-        <v>362.1450102553806</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
         <v>362.6084404317796</v>
@@ -37080,16 +37080,16 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>533.1427107449111</v>
+        <v>244.7971333371383</v>
       </c>
       <c r="O32" t="n">
-        <v>396.1825288359632</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
@@ -37159,13 +37159,13 @@
         <v>591.4121262692951</v>
       </c>
       <c r="N33" t="n">
-        <v>591.4121262692951</v>
+        <v>529.2029588809055</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>148.7405620940779</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37305,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>274.1926243725203</v>
+        <v>314.7944296574907</v>
       </c>
       <c r="M35" t="n">
         <v>551.5160606510915</v>
@@ -37326,7 +37326,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q35" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="O36" t="n">
-        <v>521.7376591828091</v>
+        <v>292.4705431688957</v>
       </c>
       <c r="P36" t="n">
-        <v>148.7405620940779</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K38" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>450.0014084583875</v>
+        <v>128.0817426464313</v>
       </c>
       <c r="M38" t="n">
         <v>551.5160606510915</v>
@@ -37560,10 +37560,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
@@ -37633,10 +37633,10 @@
         <v>591.4121262692951</v>
       </c>
       <c r="N39" t="n">
-        <v>216.176576306681</v>
+        <v>529.2029588809064</v>
       </c>
       <c r="O39" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>409.7185542589873</v>
@@ -37779,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K41" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>498.303324968211</v>
@@ -37794,13 +37794,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O41" t="n">
-        <v>396.1825288359632</v>
+        <v>74.26286302400655</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37861,16 +37861,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>591.4121262692951</v>
+        <v>247.8874524576762</v>
       </c>
       <c r="N42" t="n">
-        <v>216.176576306681</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37879,7 +37879,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>314.3065239219562</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L44" t="n">
         <v>498.303324968211</v>
@@ -38031,7 +38031,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O44" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359632</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>148.740562094078</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
@@ -38113,7 +38113,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>148.7405620940779</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
